--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -326,7 +326,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$V$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$W$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -608,16 +608,19 @@
     <t>Percent Share of the Institutional Sector, at Constant 2018 Prices</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23578,18 +23581,18 @@
   <dimension ref="A1:BQ165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="61" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
-    <col min="2" max="22" width="9.81640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.7265625" style="1"/>
+    <col min="2" max="23" width="9.81640625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.25">
@@ -23604,7 +23607,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
@@ -23614,7 +23617,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
@@ -23647,6 +23650,7 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -23714,6 +23718,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23786,7 +23793,9 @@
       <c r="V12" s="8">
         <v>742782.48612369096</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>1054458.9453374979</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23901,7 +23910,9 @@
       <c r="V13" s="8">
         <v>1042372.624648624</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>837614.87854123721</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24016,7 +24027,9 @@
       <c r="V14" s="8">
         <v>537782.18418226205</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>767068.01589860115</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24202,7 +24215,9 @@
       <c r="V16" s="12">
         <v>2322937.294954577</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="12">
+        <v>2659141.8397773365</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24273,6 +24288,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -24297,7 +24313,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="9"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -24412,7 +24428,9 @@
       <c r="V19" s="8">
         <v>1177113.6047985088</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="8">
+        <v>1339506.2558552786</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -24483,6 +24501,7 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
@@ -24508,7 +24527,7 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -24518,7 +24537,7 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -24551,6 +24570,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -24618,6 +24638,9 @@
       </c>
       <c r="V34" s="18">
         <v>2020</v>
+      </c>
+      <c r="W34" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="35" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24690,7 +24713,9 @@
       <c r="V36" s="8">
         <v>713468.62590127392</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="8">
+        <v>980309.80379959405</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -24805,7 +24830,9 @@
       <c r="V37" s="8">
         <v>1005480.6836574837</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="8">
+        <v>777580.43191051763</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -24920,7 +24947,9 @@
       <c r="V38" s="8">
         <v>514783.0626585476</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="8">
+        <v>712355.98739238421</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25106,7 +25135,9 @@
       <c r="V40" s="12">
         <v>2233732.372217305</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="12">
+        <v>2470246.223102496</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -25177,6 +25208,7 @@
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -25201,7 +25233,7 @@
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="9"/>
+      <c r="W42" s="12"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -25316,7 +25348,9 @@
       <c r="V43" s="8">
         <v>1119437.9321274832</v>
       </c>
-      <c r="W43" s="9"/>
+      <c r="W43" s="8">
+        <v>1229220.3270668632</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -25387,6 +25421,7 @@
       <c r="T44" s="15"/>
       <c r="U44" s="15"/>
       <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
@@ -25552,7 +25587,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
@@ -25565,7 +25600,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.25">
@@ -25597,6 +25632,8 @@
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
       <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
@@ -25660,8 +25697,12 @@
         <v>14</v>
       </c>
       <c r="U58" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="V58" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="W58" s="20"/>
     </row>
     <row r="59" spans="1:60" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
@@ -25730,7 +25771,10 @@
       <c r="U60" s="21">
         <v>-9.0975021454781739</v>
       </c>
-      <c r="W60" s="9"/>
+      <c r="V60" s="21">
+        <v>41.960663456179731</v>
+      </c>
+      <c r="W60" s="21"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
@@ -25833,7 +25877,10 @@
       <c r="U61" s="21">
         <v>-31.3889198053065</v>
       </c>
-      <c r="W61" s="9"/>
+      <c r="V61" s="21">
+        <v>-19.643430886954562</v>
+      </c>
+      <c r="W61" s="21"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -25936,7 +25983,10 @@
       <c r="U62" s="21">
         <v>-43.638205666498607</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="V62" s="21">
+        <v>42.635445810646416</v>
+      </c>
+      <c r="W62" s="21"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -25997,7 +26047,8 @@
       <c r="S63" s="22"/>
       <c r="T63" s="22"/>
       <c r="U63" s="22"/>
-      <c r="W63" s="9"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -26100,7 +26151,10 @@
       <c r="U64" s="21">
         <v>-29.405356155053056</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="V64" s="21">
+        <v>14.473250980687084</v>
+      </c>
+      <c r="W64" s="21"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -26161,7 +26215,8 @@
       <c r="S65" s="23"/>
       <c r="T65" s="23"/>
       <c r="U65" s="23"/>
-      <c r="V65" s="1"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
@@ -26185,7 +26240,8 @@
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
-      <c r="W66" s="9"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -26288,7 +26344,10 @@
       <c r="U67" s="21">
         <v>-23.351396612829731</v>
       </c>
-      <c r="W67" s="9"/>
+      <c r="V67" s="21">
+        <v>13.795835031960848</v>
+      </c>
+      <c r="W67" s="21"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -26349,6 +26408,8 @@
       <c r="S68" s="15"/>
       <c r="T68" s="15"/>
       <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
@@ -26382,6 +26443,7 @@
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -26443,6 +26505,7 @@
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -26494,7 +26557,7 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.25">
@@ -26504,7 +26567,7 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.25">
@@ -26536,6 +26599,8 @@
       <c r="S81" s="19"/>
       <c r="T81" s="19"/>
       <c r="U81" s="19"/>
+      <c r="V81" s="19"/>
+      <c r="W81" s="19"/>
     </row>
     <row r="82" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -26599,8 +26664,12 @@
         <v>14</v>
       </c>
       <c r="U82" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="V82" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W82" s="18"/>
     </row>
     <row r="83" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
@@ -26669,7 +26738,10 @@
       <c r="U84" s="21">
         <v>-10.408597967472616</v>
       </c>
-      <c r="W84" s="9"/>
+      <c r="V84" s="21">
+        <v>37.400548280765491</v>
+      </c>
+      <c r="W84" s="21"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -26772,7 +26844,10 @@
       <c r="U85" s="21">
         <v>-31.981954300355468</v>
       </c>
-      <c r="W85" s="9"/>
+      <c r="V85" s="21">
+        <v>-22.665801089083885</v>
+      </c>
+      <c r="W85" s="21"/>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -26875,7 +26950,10 @@
       <c r="U86" s="21">
         <v>-44.728794474137167</v>
       </c>
-      <c r="W86" s="9"/>
+      <c r="V86" s="21">
+        <v>38.379841736340381</v>
+      </c>
+      <c r="W86" s="21"/>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
@@ -26936,7 +27014,8 @@
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
       <c r="U87" s="22"/>
-      <c r="W87" s="9"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -27039,7 +27118,10 @@
       <c r="U88" s="21">
         <v>-30.326299338358837</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="V88" s="21">
+        <v>10.588280575905173</v>
+      </c>
+      <c r="W88" s="21"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -27100,7 +27182,8 @@
       <c r="S89" s="23"/>
       <c r="T89" s="23"/>
       <c r="U89" s="23"/>
-      <c r="V89" s="1"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="23"/>
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
@@ -27124,7 +27207,8 @@
       <c r="S90" s="21"/>
       <c r="T90" s="21"/>
       <c r="U90" s="21"/>
-      <c r="W90" s="9"/>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -27227,7 +27311,10 @@
       <c r="U91" s="21">
         <v>-25.729469185235772</v>
       </c>
-      <c r="W91" s="9"/>
+      <c r="V91" s="21">
+        <v>9.8069211153797085</v>
+      </c>
+      <c r="W91" s="21"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -27288,6 +27375,8 @@
       <c r="S92" s="15"/>
       <c r="T92" s="15"/>
       <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
@@ -27448,7 +27537,7 @@
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.25">
@@ -27458,7 +27547,7 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.25">
@@ -27491,6 +27580,7 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="5"/>
+      <c r="W104" s="5"/>
     </row>
     <row r="105" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
@@ -27558,6 +27648,9 @@
       </c>
       <c r="V105" s="18">
         <v>2020</v>
+      </c>
+      <c r="W105" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="106" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27630,7 +27723,9 @@
       <c r="V107" s="24">
         <v>104.10864040242652</v>
       </c>
-      <c r="W107" s="9"/>
+      <c r="W107" s="24">
+        <v>107.56384780102253</v>
+      </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -27745,7 +27840,9 @@
       <c r="V108" s="24">
         <v>103.66908500488981</v>
       </c>
-      <c r="W108" s="9"/>
+      <c r="W108" s="24">
+        <v>107.72067353639736</v>
+      </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -27860,7 +27957,9 @@
       <c r="V109" s="24">
         <v>104.4677308155668</v>
       </c>
-      <c r="W109" s="9"/>
+      <c r="W109" s="24">
+        <v>107.68043358581055</v>
+      </c>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -28046,7 +28145,9 @@
       <c r="V111" s="24">
         <v>103.99353673012865</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="W111" s="24">
+        <v>107.64683353862587</v>
+      </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -28117,6 +28218,7 @@
       <c r="T112" s="13"/>
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
+      <c r="W112" s="13"/>
     </row>
     <row r="113" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -28141,7 +28243,7 @@
       <c r="T113" s="12"/>
       <c r="U113" s="12"/>
       <c r="V113" s="12"/>
-      <c r="W113" s="9"/>
+      <c r="W113" s="12"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -28256,7 +28358,9 @@
       <c r="V114" s="24">
         <v>105.1521992435448</v>
       </c>
-      <c r="W114" s="9"/>
+      <c r="W114" s="24">
+        <v>108.97202286359655</v>
+      </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -28327,6 +28431,7 @@
       <c r="T115" s="15"/>
       <c r="U115" s="15"/>
       <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
     </row>
     <row r="116" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
@@ -28350,7 +28455,7 @@
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.25">
@@ -28360,7 +28465,7 @@
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.25">
@@ -28393,6 +28498,7 @@
       <c r="T128" s="5"/>
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -28460,6 +28566,9 @@
       </c>
       <c r="V129" s="18">
         <v>2020</v>
+      </c>
+      <c r="W129" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="130" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28532,7 +28641,9 @@
       <c r="V131" s="24">
         <v>31.976002440402311</v>
       </c>
-      <c r="W131" s="9"/>
+      <c r="W131" s="24">
+        <v>39.654106808600822</v>
+      </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -28647,7 +28758,9 @@
       <c r="V132" s="24">
         <v>44.873041855785722</v>
       </c>
-      <c r="W132" s="9"/>
+      <c r="W132" s="24">
+        <v>31.499443392285347</v>
+      </c>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
@@ -28762,7 +28875,9 @@
       <c r="V133" s="24">
         <v>23.150955703811967</v>
       </c>
-      <c r="W133" s="9"/>
+      <c r="W133" s="24">
+        <v>28.846449799113827</v>
+      </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
@@ -28948,7 +29063,9 @@
       <c r="V135" s="24">
         <v>100</v>
       </c>
-      <c r="W135" s="9"/>
+      <c r="W135" s="24">
+        <v>100</v>
+      </c>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
@@ -29019,6 +29136,7 @@
       <c r="T136" s="13"/>
       <c r="U136" s="13"/>
       <c r="V136" s="13"/>
+      <c r="W136" s="13"/>
     </row>
     <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
@@ -29043,7 +29161,7 @@
       <c r="T137" s="12"/>
       <c r="U137" s="12"/>
       <c r="V137" s="12"/>
-      <c r="W137" s="9"/>
+      <c r="W137" s="12"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -29114,7 +29232,7 @@
       <c r="T138" s="12"/>
       <c r="U138" s="12"/>
       <c r="V138" s="12"/>
-      <c r="W138" s="9"/>
+      <c r="W138" s="12"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -29185,6 +29303,7 @@
       <c r="T139" s="15"/>
       <c r="U139" s="15"/>
       <c r="V139" s="15"/>
+      <c r="W139" s="15"/>
     </row>
     <row r="140" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
@@ -29350,7 +29469,7 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.25">
@@ -29360,7 +29479,7 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.25">
@@ -29393,6 +29512,7 @@
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
@@ -29460,6 +29580,9 @@
       </c>
       <c r="V153" s="18">
         <v>2020</v>
+      </c>
+      <c r="W153" s="18">
+        <v>2021</v>
       </c>
     </row>
     <row r="154" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29532,7 +29655,9 @@
       <c r="V155" s="24">
         <v>31.94064941598408</v>
       </c>
-      <c r="W155" s="9"/>
+      <c r="W155" s="24">
+        <v>39.684700036435146</v>
+      </c>
       <c r="X155" s="9"/>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
@@ -29647,7 +29772,9 @@
       <c r="V156" s="24">
         <v>45.013480404521225</v>
       </c>
-      <c r="W156" s="9"/>
+      <c r="W156" s="24">
+        <v>31.477851261884272</v>
+      </c>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -29762,7 +29889,9 @@
       <c r="V157" s="24">
         <v>23.045870179494706</v>
       </c>
-      <c r="W157" s="9"/>
+      <c r="W157" s="24">
+        <v>28.837448701680579</v>
+      </c>
       <c r="X157" s="9"/>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
@@ -29948,7 +30077,9 @@
       <c r="V159" s="24">
         <v>100</v>
       </c>
-      <c r="W159" s="9"/>
+      <c r="W159" s="24">
+        <v>100</v>
+      </c>
       <c r="X159" s="9"/>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
@@ -30019,6 +30150,7 @@
       <c r="T160" s="13"/>
       <c r="U160" s="13"/>
       <c r="V160" s="13"/>
+      <c r="W160" s="13"/>
     </row>
     <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
@@ -30043,7 +30175,7 @@
       <c r="T161" s="12"/>
       <c r="U161" s="12"/>
       <c r="V161" s="12"/>
-      <c r="W161" s="9"/>
+      <c r="W161" s="12"/>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -30114,7 +30246,7 @@
       <c r="T162" s="12"/>
       <c r="U162" s="12"/>
       <c r="V162" s="12"/>
-      <c r="W162" s="9"/>
+      <c r="W162" s="12"/>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -30185,6 +30317,7 @@
       <c r="T163" s="15"/>
       <c r="U163" s="15"/>
       <c r="V163" s="15"/>
+      <c r="W163" s="15"/>
     </row>
     <row r="164" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
@@ -30202,9 +30335,9 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="21" man="1"/>
-    <brk id="96" max="21" man="1"/>
-    <brk id="119" max="21" man="1"/>
+    <brk id="48" max="22" man="1"/>
+    <brk id="96" max="22" man="1"/>
+    <brk id="119" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225D8E6-5A22-4589-BF12-4425A99F679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -614,19 +615,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -763,9 +764,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23574,7 +23575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23585,7 +23586,7 @@
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23607,7 +23608,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
@@ -23617,7 +23618,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
@@ -23791,10 +23792,10 @@
         <v>817119.99521995778</v>
       </c>
       <c r="V12" s="8">
-        <v>742782.48612369096</v>
+        <v>749976.34191880841</v>
       </c>
       <c r="W12" s="8">
-        <v>1054458.9453374979</v>
+        <v>1052780.8772205049</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -23908,10 +23909,10 @@
         <v>1519248.2346739718</v>
       </c>
       <c r="V13" s="8">
-        <v>1042372.624648624</v>
+        <v>1040846.7508278037</v>
       </c>
       <c r="W13" s="8">
-        <v>837614.87854123721</v>
+        <v>841895.92049207038</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -24025,10 +24026,10 @@
         <v>954160.864716482</v>
       </c>
       <c r="V14" s="8">
-        <v>537782.18418226205</v>
+        <v>541149.98714871786</v>
       </c>
       <c r="W14" s="8">
-        <v>767068.01589860115</v>
+        <v>787475.98304231593</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -24213,10 +24214,10 @@
         <v>3290529.0946104112</v>
       </c>
       <c r="V16" s="12">
-        <v>2322937.294954577</v>
+        <v>2331973.0798953301</v>
       </c>
       <c r="W16" s="12">
-        <v>2659141.8397773365</v>
+        <v>2682152.7807548912</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -24426,10 +24427,10 @@
         <v>1535727.4011277531</v>
       </c>
       <c r="V19" s="8">
-        <v>1177113.6047985088</v>
+        <v>1180199.4340975878</v>
       </c>
       <c r="W19" s="8">
-        <v>1339506.2558552786</v>
+        <v>1347446.2637283925</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -24527,7 +24528,7 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.25">
@@ -24537,7 +24538,7 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.25">
@@ -24711,10 +24712,10 @@
         <v>796358.3666680865</v>
       </c>
       <c r="V36" s="8">
-        <v>713468.62590127392</v>
+        <v>720375.80410430545</v>
       </c>
       <c r="W36" s="8">
-        <v>980309.80379959405</v>
+        <v>976652.03338641662</v>
       </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -24828,10 +24829,10 @@
         <v>1478255.7677377351</v>
       </c>
       <c r="V37" s="8">
-        <v>1005480.6836574837</v>
+        <v>1004078.8684818044</v>
       </c>
       <c r="W37" s="8">
-        <v>777580.43191051763</v>
+        <v>782125.85453014239</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -24945,10 +24946,10 @@
         <v>931376.57802247</v>
       </c>
       <c r="V38" s="8">
-        <v>514783.0626585476</v>
+        <v>518079.19370196824</v>
       </c>
       <c r="W38" s="8">
-        <v>712355.98739238421</v>
+        <v>732650.04406085075</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -25133,10 +25134,10 @@
         <v>3205990.7124282913</v>
       </c>
       <c r="V40" s="12">
-        <v>2233732.372217305</v>
+        <v>2242533.866288078</v>
       </c>
       <c r="W40" s="12">
-        <v>2470246.223102496</v>
+        <v>2491427.9319774099</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -25346,10 +25347,10 @@
         <v>1507243.747751632</v>
       </c>
       <c r="V43" s="8">
-        <v>1119437.9321274832</v>
+        <v>1122308.0492658752</v>
       </c>
       <c r="W43" s="8">
-        <v>1229220.3270668632</v>
+        <v>1234810.8890535296</v>
       </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -25587,7 +25588,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
@@ -25600,7 +25601,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.25">
@@ -25769,10 +25770,10 @@
         <v>-2.1838489952266826</v>
       </c>
       <c r="U60" s="21">
-        <v>-9.0975021454781739</v>
+        <v>-8.2171105460557499</v>
       </c>
       <c r="V60" s="21">
-        <v>41.960663456179731</v>
+        <v>40.375211640273022</v>
       </c>
       <c r="W60" s="21"/>
       <c r="X60" s="9"/>
@@ -25875,10 +25876,10 @@
         <v>28.73668705053575</v>
       </c>
       <c r="U61" s="21">
-        <v>-31.3889198053065</v>
+        <v>-31.489355914824031</v>
       </c>
       <c r="V61" s="21">
-        <v>-19.643430886954562</v>
+        <v>-19.114324964506466</v>
       </c>
       <c r="W61" s="21"/>
       <c r="X61" s="9"/>
@@ -25981,10 +25982,10 @@
         <v>3.2304083771409466</v>
       </c>
       <c r="U62" s="21">
-        <v>-43.638205666498607</v>
+        <v>-43.285246004140568</v>
       </c>
       <c r="V62" s="21">
-        <v>42.635445810646416</v>
+        <v>45.518987663932649</v>
       </c>
       <c r="W62" s="21"/>
       <c r="X62" s="9"/>
@@ -26149,10 +26150,10 @@
         <v>11.930911402108819</v>
       </c>
       <c r="U64" s="21">
-        <v>-29.405356155053056</v>
+        <v>-29.13075639674814</v>
       </c>
       <c r="V64" s="21">
-        <v>14.473250980687084</v>
+        <v>15.016455544816097</v>
       </c>
       <c r="W64" s="21"/>
       <c r="X64" s="9"/>
@@ -26342,10 +26343,10 @@
         <v>11.78345486191435</v>
       </c>
       <c r="U67" s="21">
-        <v>-23.351396612829731</v>
+        <v>-23.150460607076823</v>
       </c>
       <c r="V67" s="21">
-        <v>13.795835031960848</v>
+        <v>14.171065058905569</v>
       </c>
       <c r="W67" s="21"/>
       <c r="X67" s="9"/>
@@ -26557,7 +26558,7 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.25">
@@ -26567,7 +26568,7 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.25">
@@ -26736,10 +26737,10 @@
         <v>-4.6691909344949494</v>
       </c>
       <c r="U84" s="21">
-        <v>-10.408597967472616</v>
+        <v>-9.5412524993850951</v>
       </c>
       <c r="V84" s="21">
-        <v>37.400548280765491</v>
+        <v>35.575352173405889</v>
       </c>
       <c r="W84" s="21"/>
       <c r="X84" s="9"/>
@@ -26842,10 +26843,10 @@
         <v>25.263104348935812</v>
       </c>
       <c r="U85" s="21">
-        <v>-31.981954300355468</v>
+        <v>-32.076783301281651</v>
       </c>
       <c r="V85" s="21">
-        <v>-22.665801089083885</v>
+        <v>-22.105137446748699</v>
       </c>
       <c r="W85" s="21"/>
       <c r="X85" s="9"/>
@@ -26948,10 +26949,10 @@
         <v>0.76538250259557117</v>
       </c>
       <c r="U86" s="21">
-        <v>-44.728794474137167</v>
+        <v>-44.374895619345352</v>
       </c>
       <c r="V86" s="21">
-        <v>38.379841736340381</v>
+        <v>41.416612164185295</v>
       </c>
       <c r="W86" s="21"/>
       <c r="X86" s="9"/>
@@ -27116,10 +27117,10 @@
         <v>9.0552467615490286</v>
       </c>
       <c r="U88" s="21">
-        <v>-30.326299338358837</v>
+        <v>-30.051766600735689</v>
       </c>
       <c r="V88" s="21">
-        <v>10.588280575905173</v>
+        <v>11.098787377570815</v>
       </c>
       <c r="W88" s="21"/>
       <c r="X88" s="9"/>
@@ -27309,10 +27310,10 @@
         <v>9.7101694734177215</v>
       </c>
       <c r="U91" s="21">
-        <v>-25.729469185235772</v>
+        <v>-25.539047619866963</v>
       </c>
       <c r="V91" s="21">
-        <v>9.8069211153797085</v>
+        <v>10.024238876415865</v>
       </c>
       <c r="W91" s="21"/>
       <c r="X91" s="9"/>
@@ -27537,7 +27538,7 @@
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.25">
@@ -27547,7 +27548,7 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.25">
@@ -27721,10 +27722,10 @@
         <v>102.60707106509557</v>
       </c>
       <c r="V107" s="24">
-        <v>104.10864040242652</v>
+        <v>104.1090410929761</v>
       </c>
       <c r="W107" s="24">
-        <v>107.56384780102253</v>
+        <v>107.79487895705509</v>
       </c>
       <c r="X107" s="9"/>
       <c r="Y107" s="9"/>
@@ -27838,10 +27839,10 @@
         <v>102.77302939253671</v>
       </c>
       <c r="V108" s="24">
-        <v>103.66908500488981</v>
+        <v>103.66185202180318</v>
       </c>
       <c r="W108" s="24">
-        <v>107.72067353639736</v>
+        <v>107.64200104314855</v>
       </c>
       <c r="X108" s="9"/>
       <c r="Y108" s="9"/>
@@ -27955,10 +27956,10 @@
         <v>102.44630230474428</v>
       </c>
       <c r="V109" s="24">
-        <v>104.4677308155668</v>
+        <v>104.45314031661759</v>
       </c>
       <c r="W109" s="24">
-        <v>107.68043358581055</v>
+        <v>107.48323697321878</v>
       </c>
       <c r="X109" s="9"/>
       <c r="Y109" s="9"/>
@@ -28143,10 +28144,10 @@
         <v>102.63688793153392</v>
       </c>
       <c r="V111" s="24">
-        <v>103.99353673012865</v>
+        <v>103.98831049786084</v>
       </c>
       <c r="W111" s="24">
-        <v>107.64683353862587</v>
+        <v>107.65524245471975</v>
       </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
@@ -28356,10 +28357,10 @@
         <v>101.88978414530565</v>
       </c>
       <c r="V114" s="24">
-        <v>105.1521992435448</v>
+        <v>105.1582437522016</v>
       </c>
       <c r="W114" s="24">
-        <v>108.97202286359655</v>
+        <v>109.12167002035405</v>
       </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
@@ -28455,7 +28456,7 @@
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.25">
@@ -28465,7 +28466,7 @@
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.25">
@@ -28639,10 +28640,10 @@
         <v>24.83248048340695</v>
       </c>
       <c r="V131" s="24">
-        <v>31.976002440402311</v>
+        <v>32.160591748875198</v>
       </c>
       <c r="W131" s="24">
-        <v>39.654106808600822</v>
+        <v>39.251338878771854</v>
       </c>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
@@ -28756,10 +28757,10 @@
         <v>46.170332824662239</v>
       </c>
       <c r="V132" s="24">
-        <v>44.873041855785722</v>
+        <v>44.633737833479699</v>
       </c>
       <c r="W132" s="24">
-        <v>31.499443392285347</v>
+        <v>31.388812991298693</v>
       </c>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
@@ -28873,10 +28874,10 @@
         <v>28.997186691930825</v>
       </c>
       <c r="V133" s="24">
-        <v>23.150955703811967</v>
+        <v>23.205670417645095</v>
       </c>
       <c r="W133" s="24">
-        <v>28.846449799113827</v>
+        <v>29.35984812992946</v>
       </c>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
@@ -29469,7 +29470,7 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.25">
@@ -29479,7 +29480,7 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.25">
@@ -29653,10 +29654,10 @@
         <v>24.839696621107997</v>
       </c>
       <c r="V155" s="24">
-        <v>31.94064941598408</v>
+        <v>32.123296550107277</v>
       </c>
       <c r="W155" s="24">
-        <v>39.684700036435146</v>
+        <v>39.200493052643196</v>
       </c>
       <c r="X155" s="9"/>
       <c r="Y155" s="9"/>
@@ -29770,10 +29771,10 @@
         <v>46.109171870247565</v>
       </c>
       <c r="V156" s="24">
-        <v>45.013480404521225</v>
+        <v>44.774301230232545</v>
       </c>
       <c r="W156" s="24">
-        <v>31.477851261884272</v>
+        <v>31.392674236793216</v>
       </c>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
@@ -29887,10 +29888,10 @@
         <v>29.051131508644453</v>
       </c>
       <c r="V157" s="24">
-        <v>23.045870179494706</v>
+        <v>23.102402219660181</v>
       </c>
       <c r="W157" s="24">
-        <v>28.837448701680579</v>
+        <v>29.406832710563581</v>
       </c>
       <c r="X157" s="9"/>
       <c r="Y157" s="9"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225D8E6-5A22-4589-BF12-4425A99F679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B7C66-5423-4054-9A9B-CA76A470B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$W$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$X$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
@@ -715,51 +718,50 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -782,7 +784,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15149,7 +15151,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15858,7 +15860,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15881,7 +15883,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15910,7 +15912,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15973,7 +15975,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16002,7 +16004,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16033,7 +16035,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18427,7 +18429,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18515,7 +18517,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18536,7 +18538,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18593,7 +18595,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18610,7 +18612,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18651,7 +18653,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18664,7 +18666,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18711,7 +18713,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18740,7 +18742,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23157,7 +23159,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23200,7 +23202,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23582,51 +23584,51 @@
   <dimension ref="A1:BQ165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="61" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:X1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" style="1" customWidth="1"/>
-    <col min="2" max="23" width="9.81640625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.7265625" style="1"/>
+    <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
+    <col min="2" max="24" width="9.77734375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -23652,8 +23654,9 @@
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -23723,11 +23726,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -23797,7 +23803,9 @@
       <c r="W12" s="8">
         <v>1052780.8772205049</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>1265088.2720868061</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23844,7 +23852,7 @@
       <c r="BP12" s="9"/>
       <c r="BQ12" s="9"/>
     </row>
-    <row r="13" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -23914,7 +23922,9 @@
       <c r="W13" s="8">
         <v>841895.92049207038</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>1069253.4757860405</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -23961,7 +23971,7 @@
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
     </row>
-    <row r="14" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -24031,7 +24041,9 @@
       <c r="W14" s="8">
         <v>787475.98304231593</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>909767.35481631081</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24078,8 +24090,8 @@
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
     </row>
-    <row r="15" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -24149,77 +24161,79 @@
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>350830.48038801504</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>354460.90146385803</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>381017.65105864202</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>420487.54270399403</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>480412.74579080602</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>510452.46091921895</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>593121.38023104204</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>694538.69925507193</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>827381.614614508</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>888982.869570537</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>1088491.8161652563</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>1062692.65101265</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>1297704.7093706499</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>1492103.6343379538</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>1681421.7376790559</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>1891221.5967513598</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <v>2214527.2880196115</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <v>2421829.5164352972</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="11">
         <v>2939785.8494953844</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="11">
         <v>3290529.0946104112</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="11">
         <v>2331973.0798953301</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="11">
         <v>2682152.7807548912</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="11">
+        <v>3244109.1026891572</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24266,56 +24280,57 @@
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
     </row>
-    <row r="17" spans="1:69" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+    <row r="17" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="9"/>
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -24362,8 +24377,8 @@
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="8">
@@ -24432,7 +24447,9 @@
       <c r="W19" s="8">
         <v>1347446.2637283925</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="8">
+        <v>1618294.739800398</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -24479,74 +24496,75 @@
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
     </row>
-    <row r="20" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
+    <row r="20" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:69" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:69" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:69" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -24572,82 +24590,86 @@
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>2000</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>2001</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>2002</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="17">
         <v>2003</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="17">
         <v>2004</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="17">
         <v>2005</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <v>2006</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <v>2007</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <v>2008</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="17">
         <v>2009</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="17">
         <v>2010</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="17">
         <v>2011</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="17">
         <v>2012</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="17">
         <v>2013</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="17">
         <v>2014</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="Q34" s="17">
         <v>2015</v>
       </c>
-      <c r="R34" s="18">
+      <c r="R34" s="17">
         <v>2016</v>
       </c>
-      <c r="S34" s="18">
+      <c r="S34" s="17">
         <v>2017</v>
       </c>
-      <c r="T34" s="18">
+      <c r="T34" s="17">
         <v>2018</v>
       </c>
-      <c r="U34" s="18">
+      <c r="U34" s="17">
         <v>2019</v>
       </c>
-      <c r="V34" s="18">
+      <c r="V34" s="17">
         <v>2020</v>
       </c>
-      <c r="W34" s="18">
+      <c r="W34" s="17">
         <v>2021</v>
       </c>
+      <c r="X34" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="35" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -24717,7 +24739,9 @@
       <c r="W36" s="8">
         <v>976652.03338641662</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="8">
+        <v>1092929.5325183808</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -24764,7 +24788,7 @@
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
     </row>
-    <row r="37" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -24834,7 +24858,9 @@
       <c r="W37" s="8">
         <v>782125.85453014239</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="8">
+        <v>925421.53732899961</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -24881,7 +24907,7 @@
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
     </row>
-    <row r="38" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -24951,7 +24977,9 @@
       <c r="W38" s="8">
         <v>732650.04406085075</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="8">
+        <v>789092.61168295715</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -24998,8 +25026,8 @@
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
     </row>
-    <row r="39" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -25069,77 +25097,79 @@
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>795651.64643369697</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>748814.00400502724</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>767234.44359028526</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>846665.86522914097</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>872541.14629566646</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>821181.43955661496</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>862018.36949632503</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <v>991409.11190071725</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="11">
         <v>1107427.52371706</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="11">
         <v>1148198.3690489396</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>1368896.7869596493</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="11">
         <v>1248052.9939598865</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>1475935.3752979538</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <v>1667182.2320778803</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P40" s="11">
         <v>1827840.0688946121</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <v>2042715.0114895306</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="11">
         <v>2352688.5468084039</v>
       </c>
-      <c r="S40" s="12">
+      <c r="S40" s="11">
         <v>2558243.1872705282</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="11">
         <v>2939785.8494953839</v>
       </c>
-      <c r="U40" s="12">
+      <c r="U40" s="11">
         <v>3205990.7124282913</v>
       </c>
-      <c r="V40" s="12">
+      <c r="V40" s="11">
         <v>2242533.866288078</v>
       </c>
-      <c r="W40" s="12">
+      <c r="W40" s="11">
         <v>2491427.9319774099</v>
       </c>
-      <c r="X40" s="9"/>
+      <c r="X40" s="11">
+        <v>2807443.6815303373</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -25186,56 +25216,57 @@
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
     </row>
-    <row r="41" spans="1:69" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
+    <row r="41" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="9"/>
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -25282,8 +25313,8 @@
       <c r="BP42" s="9"/>
       <c r="BQ42" s="9"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="8">
@@ -25352,7 +25383,9 @@
       <c r="W43" s="8">
         <v>1234810.8890535296</v>
       </c>
-      <c r="X43" s="9"/>
+      <c r="X43" s="8">
+        <v>1392157.7727691429</v>
+      </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -25399,43 +25432,44 @@
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
     </row>
-    <row r="44" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
+    <row r="44" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -25505,8 +25539,8 @@
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
     </row>
-    <row r="48" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -25576,207 +25610,213 @@
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="20" t="s">
+      <c r="H58" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="20" t="s">
+      <c r="J58" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="L58" s="20" t="s">
+      <c r="L58" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="20" t="s">
+      <c r="M58" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="N58" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="O58" s="20" t="s">
+      <c r="O58" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="P58" s="20" t="s">
+      <c r="P58" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="Q58" s="20" t="s">
+      <c r="Q58" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="20" t="s">
+      <c r="R58" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S58" s="20" t="s">
+      <c r="S58" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="T58" s="20" t="s">
+      <c r="T58" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U58" s="20" t="s">
+      <c r="U58" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="V58" s="20" t="s">
+      <c r="V58" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="W58" s="20"/>
+      <c r="W58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X58" s="19"/>
     </row>
-    <row r="59" spans="1:60" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>4.3762634835326537</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="20">
         <v>-10.599147288773665</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="20">
         <v>5.4143478073753357</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="20">
         <v>4.8967697244615636</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <v>15.214703613173072</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="20">
         <v>48.069717154852441</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H60" s="20">
         <v>10.908215562607481</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="20">
         <v>15.736143363911651</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J60" s="20">
         <v>25.670023707847832</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="20">
         <v>9.5158808336776275</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L60" s="20">
         <v>-35.305314128576299</v>
       </c>
-      <c r="M60" s="21">
+      <c r="M60" s="20">
         <v>22.344603526340308</v>
       </c>
-      <c r="N60" s="21">
+      <c r="N60" s="20">
         <v>23.195552881490215</v>
       </c>
-      <c r="O60" s="21">
+      <c r="O60" s="20">
         <v>2.4587438509059609</v>
       </c>
-      <c r="P60" s="21">
+      <c r="P60" s="20">
         <v>26.179582599386777</v>
       </c>
-      <c r="Q60" s="21">
+      <c r="Q60" s="20">
         <v>29.658270508371061</v>
       </c>
-      <c r="R60" s="21">
+      <c r="R60" s="20">
         <v>15.60482978608529</v>
       </c>
-      <c r="S60" s="21">
+      <c r="S60" s="20">
         <v>27.861731342369225</v>
       </c>
-      <c r="T60" s="21">
+      <c r="T60" s="20">
         <v>-2.1838489952266826</v>
       </c>
-      <c r="U60" s="21">
+      <c r="U60" s="20">
         <v>-8.2171105460557499</v>
       </c>
-      <c r="V60" s="21">
+      <c r="V60" s="20">
         <v>40.375211640273022</v>
       </c>
-      <c r="W60" s="21"/>
-      <c r="X60" s="9"/>
+      <c r="W60" s="20">
+        <v>20.166342252228574</v>
+      </c>
+      <c r="X60" s="20"/>
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
@@ -25814,75 +25854,77 @@
       <c r="BG60" s="9"/>
       <c r="BH60" s="9"/>
     </row>
-    <row r="61" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>-12.595085728920282</v>
       </c>
-      <c r="C61" s="21">
+      <c r="C61" s="20">
         <v>7.7871261880677451</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="20">
         <v>4.6601740586905862</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="20">
         <v>12.311707077503172</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="20">
         <v>1.3585351828216119</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G61" s="20">
         <v>14.042088294092252</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="20">
         <v>24.443374846996107</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="20">
         <v>11.236234474439982</v>
       </c>
-      <c r="J61" s="21">
+      <c r="J61" s="20">
         <v>-5.790365570024008</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="20">
         <v>40.483071978867997</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L61" s="20">
         <v>14.620285958480778</v>
       </c>
-      <c r="M61" s="21">
+      <c r="M61" s="20">
         <v>24.584360868279902</v>
       </c>
-      <c r="N61" s="21">
+      <c r="N61" s="20">
         <v>11.569978872887617</v>
       </c>
-      <c r="O61" s="21">
+      <c r="O61" s="20">
         <v>14.43817767937594</v>
       </c>
-      <c r="P61" s="21">
+      <c r="P61" s="20">
         <v>18.778442625981455</v>
       </c>
-      <c r="Q61" s="21">
+      <c r="Q61" s="20">
         <v>13.041424644317473</v>
       </c>
-      <c r="R61" s="21">
+      <c r="R61" s="20">
         <v>13.179098745043419</v>
       </c>
-      <c r="S61" s="21">
+      <c r="S61" s="20">
         <v>12.063131600922119</v>
       </c>
-      <c r="T61" s="21">
+      <c r="T61" s="20">
         <v>28.73668705053575</v>
       </c>
-      <c r="U61" s="21">
+      <c r="U61" s="20">
         <v>-31.489355914824031</v>
       </c>
-      <c r="V61" s="21">
+      <c r="V61" s="20">
         <v>-19.114324964506466</v>
       </c>
-      <c r="W61" s="21"/>
-      <c r="X61" s="9"/>
+      <c r="W61" s="20">
+        <v>27.005423088531472</v>
+      </c>
+      <c r="X61" s="20"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -25920,75 +25962,77 @@
       <c r="BG61" s="9"/>
       <c r="BH61" s="9"/>
     </row>
-    <row r="62" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="20">
         <v>24.72218870774654</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="20">
         <v>28.760766814439478</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D62" s="20">
         <v>21.46216790100695</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="20">
         <v>23.061353407003438</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="20">
         <v>5.4489644477149852</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="20">
         <v>-3.2668048958969393</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="20">
         <v>15.455889211359363</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="20">
         <v>31.772346453719393</v>
       </c>
-      <c r="J62" s="21">
+      <c r="J62" s="20">
         <v>4.7550050666018961</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="20">
         <v>19.799939806410123</v>
       </c>
-      <c r="L62" s="21">
+      <c r="L62" s="20">
         <v>11.223586677571731</v>
       </c>
-      <c r="M62" s="21">
+      <c r="M62" s="20">
         <v>19.319967504528663</v>
       </c>
-      <c r="N62" s="21">
+      <c r="N62" s="20">
         <v>14.154580522996426</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="20">
         <v>17.036252825352221</v>
       </c>
-      <c r="P62" s="21">
+      <c r="P62" s="20">
         <v>-1.6742582474514762</v>
       </c>
-      <c r="Q62" s="21">
+      <c r="Q62" s="20">
         <v>13.711325078183734</v>
       </c>
-      <c r="R62" s="21">
+      <c r="R62" s="20">
         <v>-0.48873143544717834</v>
       </c>
-      <c r="S62" s="21">
+      <c r="S62" s="20">
         <v>29.198791346713904</v>
       </c>
-      <c r="T62" s="21">
+      <c r="T62" s="20">
         <v>3.2304083771409466</v>
       </c>
-      <c r="U62" s="21">
+      <c r="U62" s="20">
         <v>-43.285246004140568</v>
       </c>
-      <c r="V62" s="21">
+      <c r="V62" s="20">
         <v>45.518987663932649</v>
       </c>
-      <c r="W62" s="21"/>
-      <c r="X62" s="9"/>
+      <c r="W62" s="20">
+        <v>15.529536697936777</v>
+      </c>
+      <c r="X62" s="20"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -26026,31 +26070,31 @@
       <c r="BG62" s="9"/>
       <c r="BH62" s="9"/>
     </row>
-    <row r="63" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="9"/>
+    <row r="63" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -26088,75 +26132,77 @@
       <c r="BG63" s="9"/>
       <c r="BH63" s="9"/>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>1.0348077714991604</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C64" s="20">
         <v>7.492152021593796</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="20">
         <v>10.359071695415295</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="20">
         <v>14.251362288037356</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="20">
         <v>6.2528971996704001</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="20">
         <v>16.195223971092915</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H64" s="20">
         <v>17.098914725435165</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="20">
         <v>19.126783792165483</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J64" s="20">
         <v>7.4453255750347012</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="20">
         <v>22.442383697573504</v>
       </c>
-      <c r="L64" s="21">
+      <c r="L64" s="20">
         <v>-2.3701753903393126</v>
       </c>
-      <c r="M64" s="21">
+      <c r="M64" s="20">
         <v>22.11477214357835</v>
       </c>
-      <c r="N64" s="21">
+      <c r="N64" s="20">
         <v>14.980212644953866</v>
       </c>
-      <c r="O64" s="21">
+      <c r="O64" s="20">
         <v>12.687999612379656</v>
       </c>
-      <c r="P64" s="21">
+      <c r="P64" s="20">
         <v>12.477527462081014</v>
       </c>
-      <c r="Q64" s="21">
+      <c r="Q64" s="20">
         <v>17.095071874369935</v>
       </c>
-      <c r="R64" s="21">
+      <c r="R64" s="20">
         <v>9.3610148557288824</v>
       </c>
-      <c r="S64" s="21">
+      <c r="S64" s="20">
         <v>21.386985728973599</v>
       </c>
-      <c r="T64" s="21">
+      <c r="T64" s="20">
         <v>11.930911402108819</v>
       </c>
-      <c r="U64" s="21">
+      <c r="U64" s="20">
         <v>-29.13075639674814</v>
       </c>
-      <c r="V64" s="21">
+      <c r="V64" s="20">
         <v>15.016455544816097</v>
       </c>
-      <c r="W64" s="21"/>
-      <c r="X64" s="9"/>
+      <c r="W64" s="20">
+        <v>20.951689477439217</v>
+      </c>
+      <c r="X64" s="20"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -26194,56 +26240,57 @@
       <c r="BG64" s="9"/>
       <c r="BH64" s="9"/>
     </row>
-    <row r="65" spans="1:60" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
+    <row r="65" spans="1:60" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="9"/>
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -26281,75 +26328,77 @@
       <c r="BG66" s="9"/>
       <c r="BH66" s="9"/>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>0.94897285786841223</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="20">
         <v>4.9431504201965453</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="20">
         <v>8.0673489535584793</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>13.087578748062612</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="20">
         <v>4.7436261773160737</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G67" s="20">
         <v>14.792986822455063</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H67" s="20">
         <v>13.567706345944487</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="20">
         <v>12.294365391286505</v>
       </c>
-      <c r="J67" s="21">
+      <c r="J67" s="20">
         <v>8.8236008850282275</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="20">
         <v>19.212402441277661</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L67" s="20">
         <v>-5.2847357512528248</v>
       </c>
-      <c r="M67" s="21">
+      <c r="M67" s="20">
         <v>22.798634885895993</v>
       </c>
-      <c r="N67" s="21">
+      <c r="N67" s="20">
         <v>19.243301564819077</v>
       </c>
-      <c r="O67" s="21">
+      <c r="O67" s="20">
         <v>13.199521298387154</v>
       </c>
-      <c r="P67" s="21">
+      <c r="P67" s="20">
         <v>11.760564878879734</v>
       </c>
-      <c r="Q67" s="21">
+      <c r="Q67" s="20">
         <v>12.944257256844381</v>
       </c>
-      <c r="R67" s="21">
+      <c r="R67" s="20">
         <v>7.7722103216260336</v>
       </c>
-      <c r="S67" s="21">
+      <c r="S67" s="20">
         <v>24.199788147313782</v>
       </c>
-      <c r="T67" s="21">
+      <c r="T67" s="20">
         <v>11.78345486191435</v>
       </c>
-      <c r="U67" s="21">
+      <c r="U67" s="20">
         <v>-23.150460607076823</v>
       </c>
-      <c r="V67" s="21">
+      <c r="V67" s="20">
         <v>14.171065058905569</v>
       </c>
-      <c r="W67" s="21"/>
-      <c r="X67" s="9"/>
+      <c r="W67" s="20">
+        <v>20.10087402836875</v>
+      </c>
+      <c r="X67" s="20"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -26387,43 +26436,44 @@
       <c r="BG67" s="9"/>
       <c r="BH67" s="9"/>
     </row>
-    <row r="68" spans="1:60" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
-      <c r="U68" s="15"/>
-      <c r="V68" s="15"/>
-      <c r="W68" s="15"/>
+    <row r="68" spans="1:60" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
+    <row r="71" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -26484,8 +26534,8 @@
       <c r="BG71" s="9"/>
       <c r="BH71" s="9"/>
     </row>
-    <row r="72" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -26546,204 +26596,210 @@
       <c r="BG72" s="9"/>
       <c r="BH72" s="9"/>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19"/>
-      <c r="Q81" s="19"/>
-      <c r="R81" s="19"/>
-      <c r="S81" s="19"/>
-      <c r="T81" s="19"/>
-      <c r="U81" s="19"/>
-      <c r="V81" s="19"/>
-      <c r="W81" s="19"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I82" s="18" t="s">
+      <c r="I82" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J82" s="18" t="s">
+      <c r="J82" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K82" s="18" t="s">
+      <c r="K82" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L82" s="18" t="s">
+      <c r="L82" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M82" s="18" t="s">
+      <c r="M82" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N82" s="18" t="s">
+      <c r="N82" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O82" s="18" t="s">
+      <c r="O82" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P82" s="18" t="s">
+      <c r="P82" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q82" s="18" t="s">
+      <c r="Q82" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R82" s="18" t="s">
+      <c r="R82" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S82" s="18" t="s">
+      <c r="S82" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="T82" s="18" t="s">
+      <c r="T82" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="U82" s="18" t="s">
+      <c r="U82" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="V82" s="18" t="s">
+      <c r="V82" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="W82" s="18"/>
+      <c r="W82" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="X82" s="17"/>
     </row>
-    <row r="83" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>-2.9983014159682142</v>
       </c>
-      <c r="C84" s="21">
+      <c r="C84" s="20">
         <v>-15.005455442241526</v>
       </c>
-      <c r="D84" s="21">
+      <c r="D84" s="20">
         <v>5.4389006863892746</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="20">
         <v>-5.3382561529438846</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="20">
         <v>2.4125876168854035</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G84" s="20">
         <v>34.000513376351535</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H84" s="20">
         <v>8.9257386250515225</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="20">
         <v>8.5016791495757786</v>
       </c>
-      <c r="J84" s="21">
+      <c r="J84" s="20">
         <v>21.214924046823327</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K84" s="20">
         <v>6.541804844445025</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L84" s="20">
         <v>-39.565717364308085</v>
       </c>
-      <c r="M84" s="21">
+      <c r="M84" s="20">
         <v>18.477508190062196</v>
       </c>
-      <c r="N84" s="21">
+      <c r="N84" s="20">
         <v>20.97000023556042</v>
       </c>
-      <c r="O84" s="21">
+      <c r="O84" s="20">
         <v>-0.31904253934568771</v>
       </c>
-      <c r="P84" s="21">
+      <c r="P84" s="20">
         <v>25.570185626007614</v>
       </c>
-      <c r="Q84" s="21">
+      <c r="Q84" s="20">
         <v>27.48572779638539</v>
       </c>
-      <c r="R84" s="21">
+      <c r="R84" s="20">
         <v>14.880946708966832</v>
       </c>
-      <c r="S84" s="21">
+      <c r="S84" s="20">
         <v>20.939865271915892</v>
       </c>
-      <c r="T84" s="21">
+      <c r="T84" s="20">
         <v>-4.6691909344949494</v>
       </c>
-      <c r="U84" s="21">
+      <c r="U84" s="20">
         <v>-9.5412524993850951</v>
       </c>
-      <c r="V84" s="21">
+      <c r="V84" s="20">
         <v>35.575352173405889</v>
       </c>
-      <c r="W84" s="21"/>
-      <c r="X84" s="9"/>
+      <c r="W84" s="20">
+        <v>11.905724368257012</v>
+      </c>
+      <c r="X84" s="20"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -26781,75 +26837,77 @@
       <c r="BG84" s="9"/>
       <c r="BH84" s="9"/>
     </row>
-    <row r="85" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="21">
+      <c r="B85" s="20">
         <v>-18.528382066713107</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="20">
         <v>2.8292713871208406</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="20">
         <v>4.4059239912544399</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="20">
         <v>1.4596118084826628</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="20">
         <v>-9.929894776190082</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G85" s="20">
         <v>3.2466838001379443</v>
       </c>
-      <c r="H85" s="21">
+      <c r="H85" s="20">
         <v>22.361408827858043</v>
       </c>
-      <c r="I85" s="21">
+      <c r="I85" s="20">
         <v>4.5347219352400998</v>
       </c>
-      <c r="J85" s="21">
+      <c r="J85" s="20">
         <v>-9.0217151066418495</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="20">
         <v>36.930500686567825</v>
       </c>
-      <c r="L85" s="21">
+      <c r="L85" s="20">
         <v>7.1645464234425589</v>
       </c>
-      <c r="M85" s="21">
+      <c r="M85" s="20">
         <v>20.711707652315908</v>
       </c>
-      <c r="N85" s="21">
+      <c r="N85" s="20">
         <v>9.646580919963327</v>
       </c>
-      <c r="O85" s="21">
+      <c r="O85" s="20">
         <v>11.227668285817316</v>
       </c>
-      <c r="P85" s="21">
+      <c r="P85" s="20">
         <v>17.21864587338986</v>
       </c>
-      <c r="Q85" s="21">
+      <c r="Q85" s="20">
         <v>11.166948505411483</v>
       </c>
-      <c r="R85" s="21">
+      <c r="R85" s="20">
         <v>12.615792706901431</v>
       </c>
-      <c r="S85" s="21">
+      <c r="S85" s="20">
         <v>6.1918651943905871</v>
       </c>
-      <c r="T85" s="21">
+      <c r="T85" s="20">
         <v>25.263104348935812</v>
       </c>
-      <c r="U85" s="21">
+      <c r="U85" s="20">
         <v>-32.076783301281651</v>
       </c>
-      <c r="V85" s="21">
+      <c r="V85" s="20">
         <v>-22.105137446748699</v>
       </c>
-      <c r="W85" s="21"/>
-      <c r="X85" s="9"/>
+      <c r="W85" s="20">
+        <v>18.321307494040241</v>
+      </c>
+      <c r="X85" s="20"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -26887,75 +26945,77 @@
       <c r="BG85" s="9"/>
       <c r="BH85" s="9"/>
     </row>
-    <row r="86" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="21">
+      <c r="B86" s="20">
         <v>15.91043447479808</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="20">
         <v>22.622336246513058</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="20">
         <v>21.566682389444409</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="20">
         <v>10.690560964599911</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="20">
         <v>-7.0994707049441104</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="20">
         <v>-12.929970553895885</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="20">
         <v>13.268362492953912</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="20">
         <v>23.341645105844492</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J86" s="20">
         <v>1.057046663050599</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="20">
         <v>16.573245714059155</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L86" s="20">
         <v>3.7192617616195349</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M86" s="20">
         <v>15.4568931048819</v>
       </c>
-      <c r="N86" s="21">
+      <c r="N86" s="20">
         <v>12.148853778174654</v>
       </c>
-      <c r="O86" s="21">
+      <c r="O86" s="20">
         <v>14.013156653965851</v>
       </c>
-      <c r="P86" s="21">
+      <c r="P86" s="20">
         <v>-1.6632023670832154</v>
       </c>
-      <c r="Q86" s="21">
+      <c r="Q86" s="20">
         <v>11.884133819900697</v>
       </c>
-      <c r="R86" s="21">
+      <c r="R86" s="20">
         <v>-1.100178027624338</v>
       </c>
-      <c r="S86" s="21">
+      <c r="S86" s="20">
         <v>22.228660264714378</v>
       </c>
-      <c r="T86" s="21">
+      <c r="T86" s="20">
         <v>0.76538250259557117</v>
       </c>
-      <c r="U86" s="21">
+      <c r="U86" s="20">
         <v>-44.374895619345352</v>
       </c>
-      <c r="V86" s="21">
+      <c r="V86" s="20">
         <v>41.416612164185295</v>
       </c>
-      <c r="W86" s="21"/>
-      <c r="X86" s="9"/>
+      <c r="W86" s="20">
+        <v>7.7038919303495703</v>
+      </c>
+      <c r="X86" s="20"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
@@ -26993,31 +27053,31 @@
       <c r="BG86" s="9"/>
       <c r="BH86" s="9"/>
     </row>
-    <row r="87" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="9"/>
+    <row r="87" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -27055,75 +27115,77 @@
       <c r="BG87" s="9"/>
       <c r="BH87" s="9"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="21">
+      <c r="B88" s="20">
         <v>-5.8867021313419485</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="20">
         <v>2.4599485969461625</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="20">
         <v>10.352953038337944</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="20">
         <v>3.056138451917235</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="20">
         <v>-5.8862217509279446</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="20">
         <v>4.9729484828297359</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H88" s="20">
         <v>15.010207088741609</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="20">
         <v>11.702374975545027</v>
       </c>
-      <c r="J88" s="21">
+      <c r="J88" s="20">
         <v>3.6815813639011736</v>
       </c>
-      <c r="K88" s="21">
+      <c r="K88" s="20">
         <v>19.221279515796198</v>
       </c>
-      <c r="L88" s="21">
+      <c r="L88" s="20">
         <v>-8.8278235547736017</v>
       </c>
-      <c r="M88" s="21">
+      <c r="M88" s="20">
         <v>18.259030861744947</v>
       </c>
-      <c r="N88" s="21">
+      <c r="N88" s="20">
         <v>12.957671452337038</v>
       </c>
-      <c r="O88" s="21">
+      <c r="O88" s="20">
         <v>9.6364892646736706</v>
       </c>
-      <c r="P88" s="21">
+      <c r="P88" s="20">
         <v>11.755675250344197</v>
       </c>
-      <c r="Q88" s="21">
+      <c r="Q88" s="20">
         <v>15.174585469602192</v>
       </c>
-      <c r="R88" s="21">
+      <c r="R88" s="20">
         <v>8.7370102915226227</v>
       </c>
-      <c r="S88" s="21">
+      <c r="S88" s="20">
         <v>14.91424521809968</v>
       </c>
-      <c r="T88" s="21">
+      <c r="T88" s="20">
         <v>9.0552467615490286</v>
       </c>
-      <c r="U88" s="21">
+      <c r="U88" s="20">
         <v>-30.051766600735689</v>
       </c>
-      <c r="V88" s="21">
+      <c r="V88" s="20">
         <v>11.098787377570815</v>
       </c>
-      <c r="W88" s="21"/>
-      <c r="X88" s="9"/>
+      <c r="W88" s="20">
+        <v>12.684121643531171</v>
+      </c>
+      <c r="X88" s="20"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -27161,56 +27223,57 @@
       <c r="BG88" s="9"/>
       <c r="BH88" s="9"/>
     </row>
-    <row r="89" spans="1:69" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-      <c r="R89" s="23"/>
-      <c r="S89" s="23"/>
-      <c r="T89" s="23"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="23"/>
-      <c r="W89" s="23"/>
+    <row r="89" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="12"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+      <c r="X89" s="22"/>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="21"/>
-      <c r="X90" s="9"/>
+    <row r="90" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -27248,75 +27311,77 @@
       <c r="BG90" s="9"/>
       <c r="BH90" s="9"/>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="20">
         <v>-5.0278081599128228</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="20">
         <v>-2.2796911860237969</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="20">
         <v>5.0429703026795778</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="20">
         <v>5.8195957524812485</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="20">
         <v>-0.87695341659456005</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="20">
         <v>10.50011148679053</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H91" s="20">
         <v>11.8643784667603</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="20">
         <v>7.6373618116735429</v>
       </c>
-      <c r="J91" s="21">
+      <c r="J91" s="20">
         <v>7.216112379199231</v>
       </c>
-      <c r="K91" s="21">
+      <c r="K91" s="20">
         <v>18.250610874639278</v>
       </c>
-      <c r="L91" s="21">
+      <c r="L91" s="20">
         <v>-5.166278685628356</v>
       </c>
-      <c r="M91" s="21">
+      <c r="M91" s="20">
         <v>18.683629489509102</v>
       </c>
-      <c r="N91" s="21">
+      <c r="N91" s="20">
         <v>15.679240629582083</v>
       </c>
-      <c r="O91" s="21">
+      <c r="O91" s="20">
         <v>7.4381040281429733</v>
       </c>
-      <c r="P91" s="21">
+      <c r="P91" s="20">
         <v>11.418324258312595</v>
       </c>
-      <c r="Q91" s="21">
+      <c r="Q91" s="20">
         <v>11.996349837515723</v>
       </c>
-      <c r="R91" s="21">
+      <c r="R91" s="20">
         <v>6.0531742768322232</v>
       </c>
-      <c r="S91" s="21">
+      <c r="S91" s="20">
         <v>14.323489601090287</v>
       </c>
-      <c r="T91" s="21">
+      <c r="T91" s="20">
         <v>9.7101694734177215</v>
       </c>
-      <c r="U91" s="21">
+      <c r="U91" s="20">
         <v>-25.539047619866963</v>
       </c>
-      <c r="V91" s="21">
+      <c r="V91" s="20">
         <v>10.024238876415865</v>
       </c>
-      <c r="W91" s="21"/>
-      <c r="X91" s="9"/>
+      <c r="W91" s="20">
+        <v>12.742589582783651</v>
+      </c>
+      <c r="X91" s="20"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -27354,43 +27419,44 @@
       <c r="BG91" s="9"/>
       <c r="BH91" s="9"/>
     </row>
-    <row r="92" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
+    <row r="92" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="14"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+    <row r="95" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -27460,8 +27526,8 @@
       <c r="BP95" s="9"/>
       <c r="BQ95" s="9"/>
     </row>
-    <row r="96" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
+    <row r="96" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -27531,32 +27597,32 @@
       <c r="BP96" s="9"/>
       <c r="BQ96" s="9"/>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
         <v>6</v>
@@ -27582,152 +27648,158 @@
       <c r="U104" s="5"/>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
+      <c r="X104" s="5"/>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="18">
+      <c r="B105" s="17">
         <v>2000</v>
       </c>
-      <c r="C105" s="18">
+      <c r="C105" s="17">
         <v>2001</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="17">
         <v>2002</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="17">
         <v>2003</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="17">
         <v>2004</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="17">
         <v>2005</v>
       </c>
-      <c r="H105" s="18">
+      <c r="H105" s="17">
         <v>2006</v>
       </c>
-      <c r="I105" s="18">
+      <c r="I105" s="17">
         <v>2007</v>
       </c>
-      <c r="J105" s="18">
+      <c r="J105" s="17">
         <v>2008</v>
       </c>
-      <c r="K105" s="18">
+      <c r="K105" s="17">
         <v>2009</v>
       </c>
-      <c r="L105" s="18">
+      <c r="L105" s="17">
         <v>2010</v>
       </c>
-      <c r="M105" s="18">
+      <c r="M105" s="17">
         <v>2011</v>
       </c>
-      <c r="N105" s="18">
+      <c r="N105" s="17">
         <v>2012</v>
       </c>
-      <c r="O105" s="18">
+      <c r="O105" s="17">
         <v>2013</v>
       </c>
-      <c r="P105" s="18">
+      <c r="P105" s="17">
         <v>2014</v>
       </c>
-      <c r="Q105" s="18">
+      <c r="Q105" s="17">
         <v>2015</v>
       </c>
-      <c r="R105" s="18">
+      <c r="R105" s="17">
         <v>2016</v>
       </c>
-      <c r="S105" s="18">
+      <c r="S105" s="17">
         <v>2017</v>
       </c>
-      <c r="T105" s="18">
+      <c r="T105" s="17">
         <v>2018</v>
       </c>
-      <c r="U105" s="18">
+      <c r="U105" s="17">
         <v>2019</v>
       </c>
-      <c r="V105" s="18">
+      <c r="V105" s="17">
         <v>2020</v>
       </c>
-      <c r="W105" s="18">
+      <c r="W105" s="17">
         <v>2021</v>
       </c>
+      <c r="X105" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="106" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="24">
+      <c r="B107" s="23">
         <v>44.05540073095807</v>
       </c>
-      <c r="C107" s="24">
+      <c r="C107" s="23">
         <v>47.404717460525639</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="23">
         <v>49.862284521399879</v>
       </c>
-      <c r="E107" s="24">
+      <c r="E107" s="23">
         <v>49.850673411731215</v>
       </c>
-      <c r="F107" s="24">
+      <c r="F107" s="23">
         <v>55.240632561432889</v>
       </c>
-      <c r="G107" s="24">
+      <c r="G107" s="23">
         <v>62.146004276141618</v>
       </c>
-      <c r="H107" s="24">
+      <c r="H107" s="23">
         <v>68.670940458475144</v>
       </c>
-      <c r="I107" s="24">
+      <c r="I107" s="23">
         <v>69.920769538889544</v>
       </c>
-      <c r="J107" s="24">
+      <c r="J107" s="23">
         <v>74.582810799749609</v>
       </c>
-      <c r="K107" s="24">
+      <c r="K107" s="23">
         <v>77.324006718693298</v>
       </c>
-      <c r="L107" s="24">
+      <c r="L107" s="23">
         <v>79.482478429484061</v>
       </c>
-      <c r="M107" s="24">
+      <c r="M107" s="23">
         <v>85.085712116003663</v>
       </c>
-      <c r="N107" s="24">
+      <c r="N107" s="23">
         <v>87.86290219650283</v>
       </c>
-      <c r="O107" s="24">
+      <c r="O107" s="23">
         <v>89.479365072271392</v>
       </c>
-      <c r="P107" s="24">
+      <c r="P107" s="23">
         <v>91.972866026094209</v>
       </c>
-      <c r="Q107" s="24">
+      <c r="Q107" s="23">
         <v>92.419213906444071</v>
       </c>
-      <c r="R107" s="24">
+      <c r="R107" s="23">
         <v>93.994172084826019</v>
       </c>
-      <c r="S107" s="24">
+      <c r="S107" s="23">
         <v>94.586444280252252</v>
       </c>
-      <c r="T107" s="24">
+      <c r="T107" s="23">
         <v>100.00000000000003</v>
       </c>
-      <c r="U107" s="24">
+      <c r="U107" s="23">
         <v>102.60707106509557</v>
       </c>
-      <c r="V107" s="24">
+      <c r="V107" s="23">
         <v>104.1090410929761</v>
       </c>
-      <c r="W107" s="24">
+      <c r="W107" s="23">
         <v>107.79487895705509</v>
       </c>
-      <c r="X107" s="9"/>
+      <c r="X107" s="23">
+        <v>115.75204388262151</v>
+      </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -27774,77 +27846,79 @@
       <c r="BP107" s="9"/>
       <c r="BQ107" s="9"/>
     </row>
-    <row r="108" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="24">
+      <c r="B108" s="23">
         <v>44.401021196254781</v>
       </c>
-      <c r="C108" s="24">
+      <c r="C108" s="23">
         <v>47.63459410349374</v>
       </c>
-      <c r="D108" s="24">
+      <c r="D108" s="23">
         <v>49.931268949881321</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="23">
         <v>50.052861940129112</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F108" s="23">
         <v>55.406503813771678</v>
       </c>
-      <c r="G108" s="24">
+      <c r="G108" s="23">
         <v>62.350566286234944</v>
       </c>
-      <c r="H108" s="24">
+      <c r="H108" s="23">
         <v>68.869899970501109</v>
       </c>
-      <c r="I108" s="24">
+      <c r="I108" s="23">
         <v>70.041713803420748</v>
       </c>
-      <c r="J108" s="24">
+      <c r="J108" s="23">
         <v>74.531948384151363</v>
       </c>
-      <c r="K108" s="24">
+      <c r="K108" s="23">
         <v>77.179160047425256</v>
       </c>
-      <c r="L108" s="24">
+      <c r="L108" s="23">
         <v>79.181522318603456</v>
       </c>
-      <c r="M108" s="24">
+      <c r="M108" s="23">
         <v>84.690403997275681</v>
       </c>
-      <c r="N108" s="24">
+      <c r="N108" s="23">
         <v>87.407427654550133</v>
       </c>
-      <c r="O108" s="24">
+      <c r="O108" s="23">
         <v>88.940710918018766</v>
       </c>
-      <c r="P108" s="24">
+      <c r="P108" s="23">
         <v>91.50792276622839</v>
       </c>
-      <c r="Q108" s="24">
+      <c r="Q108" s="23">
         <v>92.725593894432151</v>
       </c>
-      <c r="R108" s="24">
+      <c r="R108" s="23">
         <v>94.289115386726579</v>
       </c>
-      <c r="S108" s="24">
+      <c r="S108" s="23">
         <v>94.760751084986467</v>
       </c>
-      <c r="T108" s="24">
+      <c r="T108" s="23">
         <v>100.00000000000003</v>
       </c>
-      <c r="U108" s="24">
+      <c r="U108" s="23">
         <v>102.77302939253671</v>
       </c>
-      <c r="V108" s="24">
+      <c r="V108" s="23">
         <v>103.66185202180318</v>
       </c>
-      <c r="W108" s="24">
+      <c r="W108" s="23">
         <v>107.64200104314855</v>
       </c>
-      <c r="X108" s="9"/>
+      <c r="X108" s="23">
+        <v>115.54231586960644</v>
+      </c>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
@@ -27891,77 +27965,79 @@
       <c r="BP108" s="9"/>
       <c r="BQ108" s="9"/>
     </row>
-    <row r="109" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B109" s="24">
+      <c r="B109" s="23">
         <v>43.517625052931841</v>
       </c>
-      <c r="C109" s="24">
+      <c r="C109" s="23">
         <v>46.825926143386397</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="23">
         <v>49.170015362435187</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E109" s="23">
         <v>49.127742439451211</v>
       </c>
-      <c r="F109" s="24">
+      <c r="F109" s="23">
         <v>54.618265746824058</v>
       </c>
-      <c r="G109" s="24">
+      <c r="G109" s="23">
         <v>61.995766941655226</v>
       </c>
-      <c r="H109" s="24">
+      <c r="H109" s="23">
         <v>68.876152418298872</v>
       </c>
-      <c r="I109" s="24">
+      <c r="I109" s="23">
         <v>70.20634224677255</v>
       </c>
-      <c r="J109" s="24">
+      <c r="J109" s="23">
         <v>75.005116445878699</v>
       </c>
-      <c r="K109" s="24">
+      <c r="K109" s="23">
         <v>77.749762265533278</v>
       </c>
-      <c r="L109" s="24">
+      <c r="L109" s="23">
         <v>79.901840103352569</v>
       </c>
-      <c r="M109" s="24">
+      <c r="M109" s="23">
         <v>85.682920293608021</v>
       </c>
-      <c r="N109" s="24">
+      <c r="N109" s="23">
         <v>88.549786766210303</v>
       </c>
-      <c r="O109" s="24">
+      <c r="O109" s="23">
         <v>90.133455877234411</v>
       </c>
-      <c r="P109" s="24">
+      <c r="P109" s="23">
         <v>92.523373965401063</v>
       </c>
-      <c r="Q109" s="24">
+      <c r="Q109" s="23">
         <v>92.512971680819376</v>
       </c>
-      <c r="R109" s="24">
+      <c r="R109" s="23">
         <v>94.023810504535703</v>
       </c>
-      <c r="S109" s="24">
+      <c r="S109" s="23">
         <v>94.60511123258523</v>
       </c>
-      <c r="T109" s="24">
+      <c r="T109" s="23">
         <v>100</v>
       </c>
-      <c r="U109" s="24">
+      <c r="U109" s="23">
         <v>102.44630230474428</v>
       </c>
-      <c r="V109" s="24">
+      <c r="V109" s="23">
         <v>104.45314031661759</v>
       </c>
-      <c r="W109" s="24">
+      <c r="W109" s="23">
         <v>107.48323697321878</v>
       </c>
-      <c r="X109" s="9"/>
+      <c r="X109" s="23">
+        <v>115.29284919750819</v>
+      </c>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
@@ -28008,8 +28084,8 @@
       <c r="BP109" s="9"/>
       <c r="BQ109" s="9"/>
     </row>
-    <row r="110" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
+    <row r="110" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -28079,77 +28155,79 @@
       <c r="BP110" s="9"/>
       <c r="BQ110" s="9"/>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="24">
+      <c r="B111" s="23">
         <v>44.093477586645122</v>
       </c>
-      <c r="C111" s="24">
+      <c r="C111" s="23">
         <v>47.336307757069982</v>
       </c>
-      <c r="D111" s="24">
+      <c r="D111" s="23">
         <v>49.661176481554207</v>
       </c>
-      <c r="E111" s="24">
+      <c r="E111" s="23">
         <v>49.663930007405419</v>
       </c>
-      <c r="F111" s="24">
+      <c r="F111" s="23">
         <v>55.059036222002412</v>
       </c>
-      <c r="G111" s="24">
+      <c r="G111" s="23">
         <v>62.160740164174968</v>
       </c>
-      <c r="H111" s="24">
+      <c r="H111" s="23">
         <v>68.80611843313747</v>
       </c>
-      <c r="I111" s="24">
+      <c r="I111" s="23">
         <v>70.05571069681929</v>
       </c>
-      <c r="J111" s="24">
+      <c r="J111" s="23">
         <v>74.712032787248859</v>
       </c>
-      <c r="K111" s="24">
+      <c r="K111" s="23">
         <v>77.424153659692749</v>
       </c>
-      <c r="L111" s="24">
+      <c r="L111" s="23">
         <v>79.515988826507595</v>
       </c>
-      <c r="M111" s="24">
+      <c r="M111" s="23">
         <v>85.148039078123134</v>
       </c>
-      <c r="N111" s="24">
+      <c r="N111" s="23">
         <v>87.924222909060376</v>
       </c>
-      <c r="O111" s="24">
+      <c r="O111" s="23">
         <v>89.498532651603497</v>
       </c>
-      <c r="P111" s="24">
+      <c r="P111" s="23">
         <v>91.989543630909523</v>
       </c>
-      <c r="Q111" s="24">
+      <c r="Q111" s="23">
         <v>92.583722453397783</v>
       </c>
-      <c r="R111" s="24">
+      <c r="R111" s="23">
         <v>94.127515986924053</v>
       </c>
-      <c r="S111" s="24">
+      <c r="S111" s="23">
         <v>94.667681653018491</v>
       </c>
-      <c r="T111" s="24">
+      <c r="T111" s="23">
         <v>100.00000000000003</v>
       </c>
-      <c r="U111" s="24">
+      <c r="U111" s="23">
         <v>102.63688793153392</v>
       </c>
-      <c r="V111" s="24">
+      <c r="V111" s="23">
         <v>103.98831049786084</v>
       </c>
-      <c r="W111" s="24">
+      <c r="W111" s="23">
         <v>107.65524245471975</v>
       </c>
-      <c r="X111" s="9"/>
+      <c r="X111" s="23">
+        <v>115.55384437563477</v>
+      </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -28196,56 +28274,57 @@
       <c r="BP111" s="9"/>
       <c r="BQ111" s="9"/>
     </row>
-    <row r="112" spans="1:69" s="14" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="13"/>
-      <c r="U112" s="13"/>
-      <c r="V112" s="13"/>
-      <c r="W112" s="13"/>
+    <row r="112" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="12"/>
-      <c r="S113" s="12"/>
-      <c r="T113" s="12"/>
-      <c r="U113" s="12"/>
-      <c r="V113" s="12"/>
-      <c r="W113" s="12"/>
-      <c r="X113" s="9"/>
+    <row r="113" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+      <c r="V113" s="11"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="11"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -28292,77 +28371,79 @@
       <c r="BP113" s="9"/>
       <c r="BQ113" s="9"/>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="24">
+      <c r="B114" s="23">
         <v>53.434144236858536</v>
       </c>
-      <c r="C114" s="24">
+      <c r="C114" s="23">
         <v>56.79685676132025</v>
       </c>
-      <c r="D114" s="24">
+      <c r="D114" s="23">
         <v>60.994906328469476</v>
       </c>
-      <c r="E114" s="24">
+      <c r="E114" s="23">
         <v>62.751060900076027</v>
       </c>
-      <c r="F114" s="24">
+      <c r="F114" s="23">
         <v>67.060977606271237</v>
       </c>
-      <c r="G114" s="24">
+      <c r="G114" s="23">
         <v>70.863539929296209</v>
       </c>
-      <c r="H114" s="24">
+      <c r="H114" s="23">
         <v>73.616553828261559</v>
       </c>
-      <c r="I114" s="24">
+      <c r="I114" s="23">
         <v>74.737492684971869</v>
       </c>
-      <c r="J114" s="24">
+      <c r="J114" s="23">
         <v>77.971061077090013</v>
       </c>
-      <c r="K114" s="24">
+      <c r="K114" s="23">
         <v>79.140079256236646</v>
       </c>
-      <c r="L114" s="24">
+      <c r="L114" s="23">
         <v>79.783765240171533</v>
       </c>
-      <c r="M114" s="24">
+      <c r="M114" s="23">
         <v>79.684107116628184</v>
       </c>
-      <c r="N114" s="24">
+      <c r="N114" s="23">
         <v>82.446918906270852</v>
       </c>
-      <c r="O114" s="24">
+      <c r="O114" s="23">
         <v>84.987096740299179</v>
       </c>
-      <c r="P114" s="24">
+      <c r="P114" s="23">
         <v>89.544568517530195</v>
       </c>
-      <c r="Q114" s="24">
+      <c r="Q114" s="23">
         <v>89.819620120593314</v>
       </c>
-      <c r="R114" s="24">
+      <c r="R114" s="23">
         <v>90.579829577750743</v>
       </c>
-      <c r="S114" s="24">
+      <c r="S114" s="23">
         <v>92.04805523942666</v>
       </c>
-      <c r="T114" s="24">
+      <c r="T114" s="23">
         <v>100</v>
       </c>
-      <c r="U114" s="24">
+      <c r="U114" s="23">
         <v>101.88978414530565</v>
       </c>
-      <c r="V114" s="24">
+      <c r="V114" s="23">
         <v>105.1582437522016</v>
       </c>
-      <c r="W114" s="24">
+      <c r="W114" s="23">
         <v>109.12167002035405</v>
       </c>
-      <c r="X114" s="9"/>
+      <c r="X114" s="23">
+        <v>116.24363067567016</v>
+      </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -28409,72 +28490,73 @@
       <c r="BP114" s="9"/>
       <c r="BQ114" s="9"/>
     </row>
-    <row r="115" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-      <c r="T115" s="15"/>
-      <c r="U115" s="15"/>
-      <c r="V115" s="15"/>
-      <c r="W115" s="15"/>
+    <row r="115" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
+      <c r="R115" s="14"/>
+      <c r="S115" s="14"/>
+      <c r="T115" s="14"/>
+      <c r="U115" s="14"/>
+      <c r="V115" s="14"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="14"/>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>6</v>
@@ -28500,152 +28582,158 @@
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B129" s="18">
+      <c r="B129" s="17">
         <v>2000</v>
       </c>
-      <c r="C129" s="18">
+      <c r="C129" s="17">
         <v>2001</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="17">
         <v>2002</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="17">
         <v>2003</v>
       </c>
-      <c r="F129" s="18">
+      <c r="F129" s="17">
         <v>2004</v>
       </c>
-      <c r="G129" s="18">
+      <c r="G129" s="17">
         <v>2005</v>
       </c>
-      <c r="H129" s="18">
+      <c r="H129" s="17">
         <v>2006</v>
       </c>
-      <c r="I129" s="18">
+      <c r="I129" s="17">
         <v>2007</v>
       </c>
-      <c r="J129" s="18">
+      <c r="J129" s="17">
         <v>2008</v>
       </c>
-      <c r="K129" s="18">
+      <c r="K129" s="17">
         <v>2009</v>
       </c>
-      <c r="L129" s="18">
+      <c r="L129" s="17">
         <v>2010</v>
       </c>
-      <c r="M129" s="18">
+      <c r="M129" s="17">
         <v>2011</v>
       </c>
-      <c r="N129" s="18">
+      <c r="N129" s="17">
         <v>2012</v>
       </c>
-      <c r="O129" s="18">
+      <c r="O129" s="17">
         <v>2013</v>
       </c>
-      <c r="P129" s="18">
+      <c r="P129" s="17">
         <v>2014</v>
       </c>
-      <c r="Q129" s="18">
+      <c r="Q129" s="17">
         <v>2015</v>
       </c>
-      <c r="R129" s="18">
+      <c r="R129" s="17">
         <v>2016</v>
       </c>
-      <c r="S129" s="18">
+      <c r="S129" s="17">
         <v>2017</v>
       </c>
-      <c r="T129" s="18">
+      <c r="T129" s="17">
         <v>2018</v>
       </c>
-      <c r="U129" s="18">
+      <c r="U129" s="17">
         <v>2019</v>
       </c>
-      <c r="V129" s="18">
+      <c r="V129" s="17">
         <v>2020</v>
       </c>
-      <c r="W129" s="18">
+      <c r="W129" s="17">
         <v>2021</v>
       </c>
+      <c r="X129" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="130" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="24">
+      <c r="B131" s="23">
         <v>31.692293753165668</v>
       </c>
-      <c r="C131" s="24">
+      <c r="C131" s="23">
         <v>32.740431502172527</v>
       </c>
-      <c r="D131" s="24">
+      <c r="D131" s="23">
         <v>27.230104146019141</v>
       </c>
-      <c r="E131" s="24">
+      <c r="E131" s="23">
         <v>26.010038188811286</v>
       </c>
-      <c r="F131" s="24">
+      <c r="F131" s="23">
         <v>23.880406603273048</v>
       </c>
-      <c r="G131" s="24">
+      <c r="G131" s="23">
         <v>25.894578326535271</v>
       </c>
-      <c r="H131" s="24">
+      <c r="H131" s="23">
         <v>32.997938793148023</v>
       </c>
-      <c r="I131" s="24">
+      <c r="I131" s="23">
         <v>31.253428072952527</v>
       </c>
-      <c r="J131" s="24">
+      <c r="J131" s="23">
         <v>30.363878860152866</v>
       </c>
-      <c r="K131" s="24">
+      <c r="K131" s="23">
         <v>35.514149692373884</v>
       </c>
-      <c r="L131" s="24">
+      <c r="L131" s="23">
         <v>31.764845375976492</v>
       </c>
-      <c r="M131" s="24">
+      <c r="M131" s="23">
         <v>21.049066733136343</v>
       </c>
-      <c r="N131" s="24">
+      <c r="N131" s="23">
         <v>21.088683038585753</v>
       </c>
-      <c r="O131" s="24">
+      <c r="O131" s="23">
         <v>22.595470183235019</v>
       </c>
-      <c r="P131" s="24">
+      <c r="P131" s="23">
         <v>20.54436585668638</v>
       </c>
-      <c r="Q131" s="24">
+      <c r="Q131" s="23">
         <v>23.047088312282668</v>
       </c>
-      <c r="R131" s="24">
+      <c r="R131" s="23">
         <v>25.519823874657344</v>
       </c>
-      <c r="S131" s="24">
+      <c r="S131" s="23">
         <v>26.976842699316723</v>
       </c>
-      <c r="T131" s="24">
+      <c r="T131" s="23">
         <v>28.415779442672846</v>
       </c>
-      <c r="U131" s="24">
+      <c r="U131" s="23">
         <v>24.83248048340695</v>
       </c>
-      <c r="V131" s="24">
+      <c r="V131" s="23">
         <v>32.160591748875198</v>
       </c>
-      <c r="W131" s="24">
+      <c r="W131" s="23">
         <v>39.251338878771854</v>
       </c>
-      <c r="X131" s="9"/>
+      <c r="X131" s="23">
+        <v>38.996477369954349</v>
+      </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -28692,77 +28780,79 @@
       <c r="BP131" s="9"/>
       <c r="BQ131" s="9"/>
     </row>
-    <row r="132" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="24">
+      <c r="B132" s="23">
         <v>46.196542506467928</v>
       </c>
-      <c r="C132" s="24">
+      <c r="C132" s="23">
         <v>39.964492697705133</v>
       </c>
-      <c r="D132" s="24">
+      <c r="D132" s="23">
         <v>40.074161103261773</v>
       </c>
-      <c r="E132" s="24">
+      <c r="E132" s="23">
         <v>38.004747701204387</v>
       </c>
-      <c r="F132" s="24">
+      <c r="F132" s="23">
         <v>37.359537828626827</v>
       </c>
-      <c r="G132" s="24">
+      <c r="G132" s="23">
         <v>35.638633196992707</v>
       </c>
-      <c r="H132" s="24">
+      <c r="H132" s="23">
         <v>34.978237614510974</v>
       </c>
-      <c r="I132" s="24">
+      <c r="I132" s="23">
         <v>37.172077513750097</v>
       </c>
-      <c r="J132" s="24">
+      <c r="J132" s="23">
         <v>34.709926673043441</v>
       </c>
-      <c r="K132" s="24">
+      <c r="K132" s="23">
         <v>30.434171849338171</v>
       </c>
-      <c r="L132" s="24">
+      <c r="L132" s="23">
         <v>34.918349556866247</v>
       </c>
-      <c r="M132" s="24">
+      <c r="M132" s="23">
         <v>40.995169533574661</v>
       </c>
-      <c r="N132" s="24">
+      <c r="N132" s="23">
         <v>41.824235556220216</v>
       </c>
-      <c r="O132" s="24">
+      <c r="O132" s="23">
         <v>40.583757587849227</v>
       </c>
-      <c r="P132" s="24">
+      <c r="P132" s="23">
         <v>41.21407139811182</v>
       </c>
-      <c r="Q132" s="24">
+      <c r="Q132" s="23">
         <v>43.522855857531809</v>
       </c>
-      <c r="R132" s="24">
+      <c r="R132" s="23">
         <v>42.016163037187141</v>
       </c>
-      <c r="S132" s="24">
+      <c r="S132" s="23">
         <v>43.483059036595414</v>
       </c>
-      <c r="T132" s="24">
+      <c r="T132" s="23">
         <v>40.143082373826246</v>
       </c>
-      <c r="U132" s="24">
+      <c r="U132" s="23">
         <v>46.170332824662239</v>
       </c>
-      <c r="V132" s="24">
+      <c r="V132" s="23">
         <v>44.633737833479699</v>
       </c>
-      <c r="W132" s="24">
+      <c r="W132" s="23">
         <v>31.388812991298693</v>
       </c>
-      <c r="X132" s="9"/>
+      <c r="X132" s="23">
+        <v>32.959849436003815</v>
+      </c>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
@@ -28809,77 +28899,79 @@
       <c r="BP132" s="9"/>
       <c r="BQ132" s="9"/>
     </row>
-    <row r="133" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="24">
+      <c r="B133" s="23">
         <v>22.111163740366386</v>
       </c>
-      <c r="C133" s="24">
+      <c r="C133" s="23">
         <v>27.295075800122344</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="23">
         <v>32.695734750719083</v>
       </c>
-      <c r="E133" s="24">
+      <c r="E133" s="23">
         <v>35.985214109984312</v>
       </c>
-      <c r="F133" s="24">
+      <c r="F133" s="23">
         <v>38.760055568100128</v>
       </c>
-      <c r="G133" s="24">
+      <c r="G133" s="23">
         <v>38.466788476472026</v>
       </c>
-      <c r="H133" s="24">
+      <c r="H133" s="23">
         <v>32.023823592341003</v>
       </c>
-      <c r="I133" s="24">
+      <c r="I133" s="23">
         <v>31.574494413297383</v>
       </c>
-      <c r="J133" s="24">
+      <c r="J133" s="23">
         <v>34.926194466803693</v>
       </c>
-      <c r="K133" s="24">
+      <c r="K133" s="23">
         <v>34.051678458287945</v>
       </c>
-      <c r="L133" s="24">
+      <c r="L133" s="23">
         <v>33.316805067157247</v>
       </c>
-      <c r="M133" s="24">
+      <c r="M133" s="23">
         <v>37.955763733288997</v>
       </c>
-      <c r="N133" s="24">
+      <c r="N133" s="23">
         <v>37.087081405194034</v>
       </c>
-      <c r="O133" s="24">
+      <c r="O133" s="23">
         <v>36.820772228915757</v>
       </c>
-      <c r="P133" s="24">
+      <c r="P133" s="23">
         <v>38.241562745201804</v>
       </c>
-      <c r="Q133" s="24">
+      <c r="Q133" s="23">
         <v>33.430055830185523</v>
       </c>
-      <c r="R133" s="24">
+      <c r="R133" s="23">
         <v>32.464013088155532</v>
       </c>
-      <c r="S133" s="24">
+      <c r="S133" s="23">
         <v>29.540098264087856</v>
       </c>
-      <c r="T133" s="24">
+      <c r="T133" s="23">
         <v>31.441138183500911</v>
       </c>
-      <c r="U133" s="24">
+      <c r="U133" s="23">
         <v>28.997186691930825</v>
       </c>
-      <c r="V133" s="24">
+      <c r="V133" s="23">
         <v>23.205670417645095</v>
       </c>
-      <c r="W133" s="24">
+      <c r="W133" s="23">
         <v>29.35984812992946</v>
       </c>
-      <c r="X133" s="9"/>
+      <c r="X133" s="23">
+        <v>28.043673194041851</v>
+      </c>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -28926,8 +29018,8 @@
       <c r="BP133" s="9"/>
       <c r="BQ133" s="9"/>
     </row>
-    <row r="134" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
+    <row r="134" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -28997,77 +29089,79 @@
       <c r="BP134" s="9"/>
       <c r="BQ134" s="9"/>
     </row>
-    <row r="135" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A135" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="24">
+      <c r="B135" s="23">
         <v>100</v>
       </c>
-      <c r="C135" s="24">
+      <c r="C135" s="23">
         <v>100</v>
       </c>
-      <c r="D135" s="24">
+      <c r="D135" s="23">
         <v>100</v>
       </c>
-      <c r="E135" s="24">
+      <c r="E135" s="23">
         <v>100</v>
       </c>
-      <c r="F135" s="24">
+      <c r="F135" s="23">
         <v>100</v>
       </c>
-      <c r="G135" s="24">
+      <c r="G135" s="23">
         <v>100</v>
       </c>
-      <c r="H135" s="24">
+      <c r="H135" s="23">
         <v>100</v>
       </c>
-      <c r="I135" s="24">
+      <c r="I135" s="23">
         <v>100</v>
       </c>
-      <c r="J135" s="24">
+      <c r="J135" s="23">
         <v>100</v>
       </c>
-      <c r="K135" s="24">
+      <c r="K135" s="23">
         <v>100</v>
       </c>
-      <c r="L135" s="24">
+      <c r="L135" s="23">
         <v>100</v>
       </c>
-      <c r="M135" s="24">
+      <c r="M135" s="23">
         <v>100</v>
       </c>
-      <c r="N135" s="24">
+      <c r="N135" s="23">
         <v>100</v>
       </c>
-      <c r="O135" s="24">
+      <c r="O135" s="23">
         <v>100</v>
       </c>
-      <c r="P135" s="24">
+      <c r="P135" s="23">
         <v>100</v>
       </c>
-      <c r="Q135" s="24">
+      <c r="Q135" s="23">
         <v>100</v>
       </c>
-      <c r="R135" s="24">
+      <c r="R135" s="23">
         <v>100</v>
       </c>
-      <c r="S135" s="24">
+      <c r="S135" s="23">
         <v>100</v>
       </c>
-      <c r="T135" s="24">
+      <c r="T135" s="23">
         <v>100</v>
       </c>
-      <c r="U135" s="24">
+      <c r="U135" s="23">
         <v>100</v>
       </c>
-      <c r="V135" s="24">
+      <c r="V135" s="23">
         <v>100</v>
       </c>
-      <c r="W135" s="24">
+      <c r="W135" s="23">
         <v>100</v>
       </c>
-      <c r="X135" s="9"/>
+      <c r="X135" s="23">
+        <v>100</v>
+      </c>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
@@ -29114,56 +29208,57 @@
       <c r="BP135" s="9"/>
       <c r="BQ135" s="9"/>
     </row>
-    <row r="136" spans="1:69" s="14" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="13"/>
-      <c r="R136" s="13"/>
-      <c r="S136" s="13"/>
-      <c r="T136" s="13"/>
-      <c r="U136" s="13"/>
-      <c r="V136" s="13"/>
-      <c r="W136" s="13"/>
+    <row r="136" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="12"/>
     </row>
-    <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="12"/>
-      <c r="P137" s="12"/>
-      <c r="Q137" s="12"/>
-      <c r="R137" s="12"/>
-      <c r="S137" s="12"/>
-      <c r="T137" s="12"/>
-      <c r="U137" s="12"/>
-      <c r="V137" s="12"/>
-      <c r="W137" s="12"/>
-      <c r="X137" s="9"/>
+    <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="10"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
+      <c r="U137" s="11"/>
+      <c r="V137" s="11"/>
+      <c r="W137" s="11"/>
+      <c r="X137" s="11"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -29210,31 +29305,31 @@
       <c r="BP137" s="9"/>
       <c r="BQ137" s="9"/>
     </row>
-    <row r="138" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
-      <c r="M138" s="12"/>
-      <c r="N138" s="12"/>
-      <c r="O138" s="12"/>
-      <c r="P138" s="12"/>
-      <c r="Q138" s="12"/>
-      <c r="R138" s="12"/>
-      <c r="S138" s="12"/>
-      <c r="T138" s="12"/>
-      <c r="U138" s="12"/>
-      <c r="V138" s="12"/>
-      <c r="W138" s="12"/>
-      <c r="X138" s="9"/>
+    <row r="138" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="11"/>
+      <c r="U138" s="11"/>
+      <c r="V138" s="11"/>
+      <c r="W138" s="11"/>
+      <c r="X138" s="11"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -29281,43 +29376,44 @@
       <c r="BP138" s="9"/>
       <c r="BQ138" s="9"/>
     </row>
-    <row r="139" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
-      <c r="P139" s="15"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="15"/>
-      <c r="S139" s="15"/>
-      <c r="T139" s="15"/>
-      <c r="U139" s="15"/>
-      <c r="V139" s="15"/>
-      <c r="W139" s="15"/>
+    <row r="139" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="14"/>
+      <c r="T139" s="14"/>
+      <c r="U139" s="14"/>
+      <c r="V139" s="14"/>
+      <c r="W139" s="14"/>
+      <c r="X139" s="14"/>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A140" s="16" t="s">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A140" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A141" s="14" t="s">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A141" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
+    <row r="142" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -29387,8 +29483,8 @@
       <c r="BP142" s="9"/>
       <c r="BQ142" s="9"/>
     </row>
-    <row r="143" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
+    <row r="143" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -29458,37 +29554,37 @@
       <c r="BP143" s="9"/>
       <c r="BQ143" s="9"/>
     </row>
-    <row r="144" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
         <v>6</v>
@@ -29514,152 +29610,158 @@
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
     </row>
-    <row r="153" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="18">
+      <c r="B153" s="17">
         <v>2000</v>
       </c>
-      <c r="C153" s="18">
+      <c r="C153" s="17">
         <v>2001</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="17">
         <v>2002</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="17">
         <v>2003</v>
       </c>
-      <c r="F153" s="18">
+      <c r="F153" s="17">
         <v>2004</v>
       </c>
-      <c r="G153" s="18">
+      <c r="G153" s="17">
         <v>2005</v>
       </c>
-      <c r="H153" s="18">
+      <c r="H153" s="17">
         <v>2006</v>
       </c>
-      <c r="I153" s="18">
+      <c r="I153" s="17">
         <v>2007</v>
       </c>
-      <c r="J153" s="18">
+      <c r="J153" s="17">
         <v>2008</v>
       </c>
-      <c r="K153" s="18">
+      <c r="K153" s="17">
         <v>2009</v>
       </c>
-      <c r="L153" s="18">
+      <c r="L153" s="17">
         <v>2010</v>
       </c>
-      <c r="M153" s="18">
+      <c r="M153" s="17">
         <v>2011</v>
       </c>
-      <c r="N153" s="18">
+      <c r="N153" s="17">
         <v>2012</v>
       </c>
-      <c r="O153" s="18">
+      <c r="O153" s="17">
         <v>2013</v>
       </c>
-      <c r="P153" s="18">
+      <c r="P153" s="17">
         <v>2014</v>
       </c>
-      <c r="Q153" s="18">
+      <c r="Q153" s="17">
         <v>2015</v>
       </c>
-      <c r="R153" s="18">
+      <c r="R153" s="17">
         <v>2016</v>
       </c>
-      <c r="S153" s="18">
+      <c r="S153" s="17">
         <v>2017</v>
       </c>
-      <c r="T153" s="18">
+      <c r="T153" s="17">
         <v>2018</v>
       </c>
-      <c r="U153" s="18">
+      <c r="U153" s="17">
         <v>2019</v>
       </c>
-      <c r="V153" s="18">
+      <c r="V153" s="17">
         <v>2020</v>
       </c>
-      <c r="W153" s="18">
+      <c r="W153" s="17">
         <v>2021</v>
       </c>
+      <c r="X153" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="154" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
     </row>
-    <row r="155" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="24">
+      <c r="B155" s="23">
         <v>31.719685239240224</v>
       </c>
-      <c r="C155" s="24">
+      <c r="C155" s="23">
         <v>32.693183816075901</v>
       </c>
-      <c r="D155" s="24">
+      <c r="D155" s="23">
         <v>27.120277792851361</v>
       </c>
-      <c r="E155" s="24">
+      <c r="E155" s="23">
         <v>25.912603134365668</v>
       </c>
-      <c r="F155" s="24">
+      <c r="F155" s="23">
         <v>23.801902896451022</v>
       </c>
-      <c r="G155" s="24">
+      <c r="G155" s="23">
         <v>25.900718377071669</v>
       </c>
-      <c r="H155" s="24">
+      <c r="H155" s="23">
         <v>33.06289486487659</v>
       </c>
-      <c r="I155" s="24">
+      <c r="I155" s="23">
         <v>31.313744539737016</v>
       </c>
-      <c r="J155" s="24">
+      <c r="J155" s="23">
         <v>30.416487239113405</v>
       </c>
-      <c r="K155" s="24">
+      <c r="K155" s="23">
         <v>35.560146189513866</v>
       </c>
-      <c r="L155" s="24">
+      <c r="L155" s="23">
         <v>31.77823766822722</v>
       </c>
-      <c r="M155" s="24">
+      <c r="M155" s="23">
         <v>21.064485589631754</v>
       </c>
-      <c r="N155" s="24">
+      <c r="N155" s="23">
         <v>21.103401116847436</v>
       </c>
-      <c r="O155" s="24">
+      <c r="O155" s="23">
         <v>22.600310410553728</v>
       </c>
-      <c r="P155" s="24">
+      <c r="P155" s="23">
         <v>20.548091203408113</v>
       </c>
-      <c r="Q155" s="24">
+      <c r="Q155" s="23">
         <v>23.088112714563405</v>
       </c>
-      <c r="R155" s="24">
+      <c r="R155" s="23">
         <v>25.556027320262782</v>
       </c>
-      <c r="S155" s="24">
+      <c r="S155" s="23">
         <v>27.000012275497504</v>
       </c>
-      <c r="T155" s="24">
+      <c r="T155" s="23">
         <v>28.415779442672846</v>
       </c>
-      <c r="U155" s="24">
+      <c r="U155" s="23">
         <v>24.839696621107997</v>
       </c>
-      <c r="V155" s="24">
+      <c r="V155" s="23">
         <v>32.123296550107277</v>
       </c>
-      <c r="W155" s="24">
+      <c r="W155" s="23">
         <v>39.200493052643196</v>
       </c>
-      <c r="X155" s="9"/>
+      <c r="X155" s="23">
+        <v>38.929704617355846</v>
+      </c>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
@@ -29706,77 +29808,79 @@
       <c r="BP155" s="9"/>
       <c r="BQ155" s="9"/>
     </row>
-    <row r="156" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B156" s="24">
+      <c r="B156" s="23">
         <v>45.876562221079276</v>
       </c>
-      <c r="C156" s="24">
+      <c r="C156" s="23">
         <v>39.71423628767721</v>
       </c>
-      <c r="D156" s="24">
+      <c r="D156" s="23">
         <v>39.857388541375094</v>
       </c>
-      <c r="E156" s="24">
+      <c r="E156" s="23">
         <v>37.709434718026998</v>
       </c>
-      <c r="F156" s="24">
+      <c r="F156" s="23">
         <v>37.12524712725795</v>
       </c>
-      <c r="G156" s="24">
+      <c r="G156" s="23">
         <v>35.530131479394086</v>
       </c>
-      <c r="H156" s="24">
+      <c r="H156" s="23">
         <v>34.945843698296791</v>
       </c>
-      <c r="I156" s="24">
+      <c r="I156" s="23">
         <v>37.179505852922702</v>
       </c>
-      <c r="J156" s="24">
+      <c r="J156" s="23">
         <v>34.793792941965535</v>
       </c>
-      <c r="K156" s="24">
+      <c r="K156" s="23">
         <v>30.530780541285029</v>
       </c>
-      <c r="L156" s="24">
+      <c r="L156" s="23">
         <v>35.065846322476141</v>
       </c>
-      <c r="M156" s="24">
+      <c r="M156" s="23">
         <v>41.216692006468477</v>
       </c>
-      <c r="N156" s="24">
+      <c r="N156" s="23">
         <v>42.071520793172823</v>
       </c>
-      <c r="O156" s="24">
+      <c r="O156" s="23">
         <v>40.838292342286977</v>
       </c>
-      <c r="P156" s="24">
+      <c r="P156" s="23">
         <v>41.430987661794219</v>
       </c>
-      <c r="Q156" s="24">
+      <c r="Q156" s="23">
         <v>43.456265286157659</v>
       </c>
-      <c r="R156" s="24">
+      <c r="R156" s="23">
         <v>41.944152745214772</v>
       </c>
-      <c r="S156" s="24">
+      <c r="S156" s="23">
         <v>43.44035207661009</v>
       </c>
-      <c r="T156" s="24">
+      <c r="T156" s="23">
         <v>40.143082373826246</v>
       </c>
-      <c r="U156" s="24">
+      <c r="U156" s="23">
         <v>46.109171870247565</v>
       </c>
-      <c r="V156" s="24">
+      <c r="V156" s="23">
         <v>44.774301230232545</v>
       </c>
-      <c r="W156" s="24">
+      <c r="W156" s="23">
         <v>31.392674236793216</v>
       </c>
-      <c r="X156" s="9"/>
+      <c r="X156" s="23">
+        <v>32.963138082419249</v>
+      </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
@@ -29823,77 +29927,79 @@
       <c r="BP156" s="9"/>
       <c r="BQ156" s="9"/>
     </row>
-    <row r="157" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B157" s="24">
+      <c r="B157" s="23">
         <v>22.403752539680504</v>
       </c>
-      <c r="C157" s="24">
+      <c r="C157" s="23">
         <v>27.592579896246871</v>
       </c>
-      <c r="D157" s="24">
+      <c r="D157" s="23">
         <v>33.022333665773537</v>
       </c>
-      <c r="E157" s="24">
+      <c r="E157" s="23">
         <v>36.377962147607342</v>
       </c>
-      <c r="F157" s="24">
+      <c r="F157" s="23">
         <v>39.072849976291025</v>
       </c>
-      <c r="G157" s="24">
+      <c r="G157" s="23">
         <v>38.569150143534245</v>
       </c>
-      <c r="H157" s="24">
+      <c r="H157" s="23">
         <v>31.991261436826612</v>
       </c>
-      <c r="I157" s="24">
+      <c r="I157" s="23">
         <v>31.506749607340286</v>
       </c>
-      <c r="J157" s="24">
+      <c r="J157" s="23">
         <v>34.789719818921057</v>
       </c>
-      <c r="K157" s="24">
+      <c r="K157" s="23">
         <v>33.909073269201109</v>
       </c>
-      <c r="L157" s="24">
+      <c r="L157" s="23">
         <v>33.155916009296632</v>
       </c>
-      <c r="M157" s="24">
+      <c r="M157" s="23">
         <v>37.718822403899779</v>
       </c>
-      <c r="N157" s="24">
+      <c r="N157" s="23">
         <v>36.825078089979733</v>
       </c>
-      <c r="O157" s="24">
+      <c r="O157" s="23">
         <v>36.561397247159299</v>
       </c>
-      <c r="P157" s="24">
+      <c r="P157" s="23">
         <v>38.020921134797668</v>
       </c>
-      <c r="Q157" s="24">
+      <c r="Q157" s="23">
         <v>33.455621999278925</v>
       </c>
-      <c r="R157" s="24">
+      <c r="R157" s="23">
         <v>32.499819934522449</v>
       </c>
-      <c r="S157" s="24">
+      <c r="S157" s="23">
         <v>29.559635647892414</v>
       </c>
-      <c r="T157" s="24">
+      <c r="T157" s="23">
         <v>31.441138183500918</v>
       </c>
-      <c r="U157" s="24">
+      <c r="U157" s="23">
         <v>29.051131508644453</v>
       </c>
-      <c r="V157" s="24">
+      <c r="V157" s="23">
         <v>23.102402219660181</v>
       </c>
-      <c r="W157" s="24">
+      <c r="W157" s="23">
         <v>29.406832710563581</v>
       </c>
-      <c r="X157" s="9"/>
+      <c r="X157" s="23">
+        <v>28.107157300224912</v>
+      </c>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
@@ -29940,8 +30046,8 @@
       <c r="BP157" s="9"/>
       <c r="BQ157" s="9"/>
     </row>
-    <row r="158" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
+    <row r="158" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -30011,77 +30117,79 @@
       <c r="BP158" s="9"/>
       <c r="BQ158" s="9"/>
     </row>
-    <row r="159" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A159" s="11" t="s">
+    <row r="159" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A159" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="24">
+      <c r="B159" s="23">
         <v>100</v>
       </c>
-      <c r="C159" s="24">
+      <c r="C159" s="23">
         <v>100</v>
       </c>
-      <c r="D159" s="24">
+      <c r="D159" s="23">
         <v>100</v>
       </c>
-      <c r="E159" s="24">
+      <c r="E159" s="23">
         <v>100</v>
       </c>
-      <c r="F159" s="24">
+      <c r="F159" s="23">
         <v>100</v>
       </c>
-      <c r="G159" s="24">
+      <c r="G159" s="23">
         <v>100</v>
       </c>
-      <c r="H159" s="24">
+      <c r="H159" s="23">
         <v>100</v>
       </c>
-      <c r="I159" s="24">
+      <c r="I159" s="23">
         <v>100</v>
       </c>
-      <c r="J159" s="24">
+      <c r="J159" s="23">
         <v>100</v>
       </c>
-      <c r="K159" s="24">
+      <c r="K159" s="23">
         <v>100</v>
       </c>
-      <c r="L159" s="24">
+      <c r="L159" s="23">
         <v>100</v>
       </c>
-      <c r="M159" s="24">
+      <c r="M159" s="23">
         <v>100</v>
       </c>
-      <c r="N159" s="24">
+      <c r="N159" s="23">
         <v>100</v>
       </c>
-      <c r="O159" s="24">
+      <c r="O159" s="23">
         <v>100</v>
       </c>
-      <c r="P159" s="24">
+      <c r="P159" s="23">
         <v>100</v>
       </c>
-      <c r="Q159" s="24">
+      <c r="Q159" s="23">
         <v>100</v>
       </c>
-      <c r="R159" s="24">
+      <c r="R159" s="23">
         <v>100</v>
       </c>
-      <c r="S159" s="24">
+      <c r="S159" s="23">
         <v>100</v>
       </c>
-      <c r="T159" s="24">
+      <c r="T159" s="23">
         <v>100</v>
       </c>
-      <c r="U159" s="24">
+      <c r="U159" s="23">
         <v>100</v>
       </c>
-      <c r="V159" s="24">
+      <c r="V159" s="23">
         <v>100</v>
       </c>
-      <c r="W159" s="24">
+      <c r="W159" s="23">
         <v>100</v>
       </c>
-      <c r="X159" s="9"/>
+      <c r="X159" s="23">
+        <v>100</v>
+      </c>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
@@ -30128,56 +30236,57 @@
       <c r="BP159" s="9"/>
       <c r="BQ159" s="9"/>
     </row>
-    <row r="160" spans="1:69" s="14" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="13"/>
-      <c r="P160" s="13"/>
-      <c r="Q160" s="13"/>
-      <c r="R160" s="13"/>
-      <c r="S160" s="13"/>
-      <c r="T160" s="13"/>
-      <c r="U160" s="13"/>
-      <c r="V160" s="13"/>
-      <c r="W160" s="13"/>
+    <row r="160" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="12"/>
     </row>
-    <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="12"/>
-      <c r="O161" s="12"/>
-      <c r="P161" s="12"/>
-      <c r="Q161" s="12"/>
-      <c r="R161" s="12"/>
-      <c r="S161" s="12"/>
-      <c r="T161" s="12"/>
-      <c r="U161" s="12"/>
-      <c r="V161" s="12"/>
-      <c r="W161" s="12"/>
-      <c r="X161" s="9"/>
+    <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="10"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="11"/>
+      <c r="U161" s="11"/>
+      <c r="V161" s="11"/>
+      <c r="W161" s="11"/>
+      <c r="X161" s="11"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -30224,31 +30333,31 @@
       <c r="BP161" s="9"/>
       <c r="BQ161" s="9"/>
     </row>
-    <row r="162" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
-      <c r="Q162" s="12"/>
-      <c r="R162" s="12"/>
-      <c r="S162" s="12"/>
-      <c r="T162" s="12"/>
-      <c r="U162" s="12"/>
-      <c r="V162" s="12"/>
-      <c r="W162" s="12"/>
-      <c r="X162" s="9"/>
+    <row r="162" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="10"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="11"/>
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
+      <c r="P162" s="11"/>
+      <c r="Q162" s="11"/>
+      <c r="R162" s="11"/>
+      <c r="S162" s="11"/>
+      <c r="T162" s="11"/>
+      <c r="U162" s="11"/>
+      <c r="V162" s="11"/>
+      <c r="W162" s="11"/>
+      <c r="X162" s="11"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -30295,38 +30404,39 @@
       <c r="BP162" s="9"/>
       <c r="BQ162" s="9"/>
     </row>
-    <row r="163" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-      <c r="N163" s="15"/>
-      <c r="O163" s="15"/>
-      <c r="P163" s="15"/>
-      <c r="Q163" s="15"/>
-      <c r="R163" s="15"/>
-      <c r="S163" s="15"/>
-      <c r="T163" s="15"/>
-      <c r="U163" s="15"/>
-      <c r="V163" s="15"/>
-      <c r="W163" s="15"/>
+    <row r="163" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+      <c r="H163" s="14"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="14"/>
+      <c r="K163" s="14"/>
+      <c r="L163" s="14"/>
+      <c r="M163" s="14"/>
+      <c r="N163" s="14"/>
+      <c r="O163" s="14"/>
+      <c r="P163" s="14"/>
+      <c r="Q163" s="14"/>
+      <c r="R163" s="14"/>
+      <c r="S163" s="14"/>
+      <c r="T163" s="14"/>
+      <c r="U163" s="14"/>
+      <c r="V163" s="14"/>
+      <c r="W163" s="14"/>
+      <c r="X163" s="14"/>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="s">
+    <row r="164" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A165" s="14" t="s">
+    <row r="165" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A165" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -30336,9 +30446,9 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="22" man="1"/>
-    <brk id="96" max="22" man="1"/>
-    <brk id="119" max="22" man="1"/>
+    <brk id="48" max="23" man="1"/>
+    <brk id="96" max="23" man="1"/>
+    <brk id="119" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B7C66-5423-4054-9A9B-CA76A470B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876FEA0-E5DF-49BC-B91F-9B4D30B91CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -618,13 +618,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -716,11 +716,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -764,9 +765,10 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{5373AF50-BD68-4584-9FE9-C28501FB5E64}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
@@ -23584,11 +23586,11 @@
   <dimension ref="A1:BQ165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="61" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O91" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1:X1048576"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23610,7 +23612,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
@@ -23620,7 +23622,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
@@ -23801,10 +23803,10 @@
         <v>749976.34191880841</v>
       </c>
       <c r="W12" s="8">
-        <v>1052780.8772205049</v>
+        <v>1041691.2957424447</v>
       </c>
       <c r="X12" s="8">
-        <v>1265088.2720868061</v>
+        <v>1262795.42508541</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -23920,10 +23922,10 @@
         <v>1040846.7508278037</v>
       </c>
       <c r="W13" s="8">
-        <v>841895.92049207038</v>
+        <v>850403.88180065725</v>
       </c>
       <c r="X13" s="8">
-        <v>1069253.4757860405</v>
+        <v>1056555.5778134847</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -24039,10 +24041,10 @@
         <v>541149.98714871786</v>
       </c>
       <c r="W14" s="8">
-        <v>787475.98304231593</v>
+        <v>789687.81026661722</v>
       </c>
       <c r="X14" s="8">
-        <v>909767.35481631081</v>
+        <v>914295.53559647955</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -24229,10 +24231,10 @@
         <v>2331973.0798953301</v>
       </c>
       <c r="W16" s="11">
-        <v>2682152.7807548912</v>
+        <v>2681782.9878097191</v>
       </c>
       <c r="X16" s="11">
-        <v>3244109.1026891572</v>
+        <v>3233646.5384953744</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -24445,10 +24447,10 @@
         <v>1180199.4340975878</v>
       </c>
       <c r="W19" s="8">
-        <v>1347446.2637283925</v>
+        <v>1347309.0564111271</v>
       </c>
       <c r="X19" s="8">
-        <v>1618294.739800398</v>
+        <v>1613641.1286973907</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -24546,7 +24548,7 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
@@ -24556,7 +24558,7 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
@@ -24737,10 +24739,10 @@
         <v>720375.80410430545</v>
       </c>
       <c r="W36" s="8">
-        <v>976652.03338641662</v>
+        <v>965773.29002778663</v>
       </c>
       <c r="X36" s="8">
-        <v>1092929.5325183808</v>
+        <v>1088001.0694671241</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -24856,10 +24858,10 @@
         <v>1004078.8684818044</v>
       </c>
       <c r="W37" s="8">
-        <v>782125.85453014239</v>
+        <v>789673.5112820504</v>
       </c>
       <c r="X37" s="8">
-        <v>925421.53732899961</v>
+        <v>911942.4432660453</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -24975,10 +24977,10 @@
         <v>518079.19370196824</v>
       </c>
       <c r="W38" s="8">
-        <v>732650.04406085075</v>
+        <v>734929.8555498597</v>
       </c>
       <c r="X38" s="8">
-        <v>789092.61168295715</v>
+        <v>792765.61948074494</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -25165,10 +25167,10 @@
         <v>2242533.866288078</v>
       </c>
       <c r="W40" s="11">
-        <v>2491427.9319774099</v>
+        <v>2490376.6568596968</v>
       </c>
       <c r="X40" s="11">
-        <v>2807443.6815303373</v>
+        <v>2792709.1322139143</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -25381,10 +25383,10 @@
         <v>1122308.0492658752</v>
       </c>
       <c r="W43" s="8">
-        <v>1234810.8890535296</v>
+        <v>1235106.1007202829</v>
       </c>
       <c r="X43" s="8">
-        <v>1392157.7727691429</v>
+        <v>1384859.0973726278</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -25622,7 +25624,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.2">
@@ -25635,7 +25637,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.2">
@@ -25811,10 +25813,10 @@
         <v>-8.2171105460557499</v>
       </c>
       <c r="V60" s="20">
-        <v>40.375211640273022</v>
+        <v>38.896554133599182</v>
       </c>
       <c r="W60" s="20">
-        <v>20.166342252228574</v>
+        <v>21.225494563183219</v>
       </c>
       <c r="X60" s="20"/>
       <c r="Y60" s="9"/>
@@ -25919,10 +25921,10 @@
         <v>-31.489355914824031</v>
       </c>
       <c r="V61" s="20">
-        <v>-19.114324964506466</v>
+        <v>-18.29691728159635</v>
       </c>
       <c r="W61" s="20">
-        <v>27.005423088531472</v>
+        <v>24.241622177960778</v>
       </c>
       <c r="X61" s="20"/>
       <c r="Y61" s="9"/>
@@ -26027,10 +26029,10 @@
         <v>-43.285246004140568</v>
       </c>
       <c r="V62" s="20">
-        <v>45.518987663932649</v>
+        <v>45.92771487022074</v>
       </c>
       <c r="W62" s="20">
-        <v>15.529536697936777</v>
+        <v>15.77936542895246</v>
       </c>
       <c r="X62" s="20"/>
       <c r="Y62" s="9"/>
@@ -26197,10 +26199,10 @@
         <v>-29.13075639674814</v>
       </c>
       <c r="V64" s="20">
-        <v>15.016455544816097</v>
+        <v>15.000598031349924</v>
       </c>
       <c r="W64" s="20">
-        <v>20.951689477439217</v>
+        <v>20.578232958975434</v>
       </c>
       <c r="X64" s="20"/>
       <c r="Y64" s="9"/>
@@ -26393,10 +26395,10 @@
         <v>-23.150460607076823</v>
       </c>
       <c r="V67" s="20">
-        <v>14.171065058905569</v>
+        <v>14.159439285048947</v>
       </c>
       <c r="W67" s="20">
-        <v>20.10087402836875</v>
+        <v>19.767704449022361</v>
       </c>
       <c r="X67" s="20"/>
       <c r="Y67" s="9"/>
@@ -26608,7 +26610,7 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.2">
@@ -26618,7 +26620,7 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
@@ -26794,10 +26796,10 @@
         <v>-9.5412524993850951</v>
       </c>
       <c r="V84" s="20">
-        <v>35.575352173405889</v>
+        <v>34.06520381797128</v>
       </c>
       <c r="W84" s="20">
-        <v>11.905724368257012</v>
+        <v>12.655949455365516</v>
       </c>
       <c r="X84" s="20"/>
       <c r="Y84" s="9"/>
@@ -26902,10 +26904,10 @@
         <v>-32.076783301281651</v>
       </c>
       <c r="V85" s="20">
-        <v>-22.105137446748699</v>
+        <v>-21.353437855329133</v>
       </c>
       <c r="W85" s="20">
-        <v>18.321307494040241</v>
+        <v>15.483478961512702</v>
       </c>
       <c r="X85" s="20"/>
       <c r="Y85" s="9"/>
@@ -27010,10 +27012,10 @@
         <v>-44.374895619345352</v>
       </c>
       <c r="V86" s="20">
-        <v>41.416612164185295</v>
+        <v>41.856662935712791</v>
       </c>
       <c r="W86" s="20">
-        <v>7.7038919303495703</v>
+        <v>7.8695624479173887</v>
       </c>
       <c r="X86" s="20"/>
       <c r="Y86" s="9"/>
@@ -27180,10 +27182,10 @@
         <v>-30.051766600735689</v>
       </c>
       <c r="V88" s="20">
-        <v>11.098787377570815</v>
+        <v>11.051908481625603</v>
       </c>
       <c r="W88" s="20">
-        <v>12.684121643531171</v>
+        <v>12.140030084262477</v>
       </c>
       <c r="X88" s="20"/>
       <c r="Y88" s="9"/>
@@ -27376,10 +27378,10 @@
         <v>-25.539047619866963</v>
       </c>
       <c r="V91" s="20">
-        <v>10.024238876415865</v>
+        <v>10.050542854806309</v>
       </c>
       <c r="W91" s="20">
-        <v>12.742589582783651</v>
+        <v>12.124707064843477</v>
       </c>
       <c r="X91" s="20"/>
       <c r="Y91" s="9"/>
@@ -27604,7 +27606,7 @@
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.2">
@@ -27614,7 +27616,7 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.2">
@@ -27795,10 +27797,10 @@
         <v>104.1090410929761</v>
       </c>
       <c r="W107" s="23">
-        <v>107.79487895705509</v>
+        <v>107.86085166141568</v>
       </c>
       <c r="X107" s="23">
-        <v>115.75204388262151</v>
+        <v>116.06564189352275</v>
       </c>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
@@ -27914,10 +27916,10 @@
         <v>103.66185202180318</v>
       </c>
       <c r="W108" s="23">
-        <v>107.64200104314855</v>
+        <v>107.69056700661137</v>
       </c>
       <c r="X108" s="23">
-        <v>115.54231586960644</v>
+        <v>115.85770413640574</v>
       </c>
       <c r="Y108" s="9"/>
       <c r="Z108" s="9"/>
@@ -28033,10 +28035,10 @@
         <v>104.45314031661759</v>
       </c>
       <c r="W109" s="23">
-        <v>107.48323697321878</v>
+        <v>107.45077292795362</v>
       </c>
       <c r="X109" s="23">
-        <v>115.29284919750819</v>
+        <v>115.32986712962348</v>
       </c>
       <c r="Y109" s="9"/>
       <c r="Z109" s="9"/>
@@ -28223,10 +28225,10 @@
         <v>103.98831049786084</v>
       </c>
       <c r="W111" s="23">
-        <v>107.65524245471975</v>
+        <v>107.68583862295678</v>
       </c>
       <c r="X111" s="23">
-        <v>115.55384437563477</v>
+        <v>115.78887687211119</v>
       </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -28439,10 +28441,10 @@
         <v>105.1582437522016</v>
       </c>
       <c r="W114" s="23">
-        <v>109.12167002035405</v>
+        <v>109.08447910875108</v>
       </c>
       <c r="X114" s="23">
-        <v>116.24363067567016</v>
+        <v>116.52023890075249</v>
       </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -28538,7 +28540,7 @@
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.2">
@@ -28548,7 +28550,7 @@
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.2">
@@ -28729,10 +28731,10 @@
         <v>32.160591748875198</v>
       </c>
       <c r="W131" s="23">
-        <v>39.251338878771854</v>
+        <v>38.843236029072607</v>
       </c>
       <c r="X131" s="23">
-        <v>38.996477369954349</v>
+        <v>39.05174576294268</v>
       </c>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -28848,10 +28850,10 @@
         <v>44.633737833479699</v>
       </c>
       <c r="W132" s="23">
-        <v>31.388812991298693</v>
+        <v>31.710391395062281</v>
       </c>
       <c r="X132" s="23">
-        <v>32.959849436003815</v>
+        <v>32.673811600481947</v>
       </c>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
@@ -28967,10 +28969,10 @@
         <v>23.205670417645095</v>
       </c>
       <c r="W133" s="23">
-        <v>29.35984812992946</v>
+        <v>29.446372575865116</v>
       </c>
       <c r="X133" s="23">
-        <v>28.043673194041851</v>
+        <v>28.274442636575365</v>
       </c>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
@@ -29566,7 +29568,7 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.2">
@@ -29576,7 +29578,7 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.2">
@@ -29757,10 +29759,10 @@
         <v>32.123296550107277</v>
       </c>
       <c r="W155" s="23">
-        <v>39.200493052643196</v>
+        <v>38.780209707137345</v>
       </c>
       <c r="X155" s="23">
-        <v>38.929704617355846</v>
+        <v>38.958624688730595</v>
       </c>
       <c r="Y155" s="9"/>
       <c r="Z155" s="9"/>
@@ -29876,10 +29878,10 @@
         <v>44.774301230232545</v>
       </c>
       <c r="W156" s="23">
-        <v>31.392674236793216</v>
+        <v>31.708999082805779</v>
       </c>
       <c r="X156" s="23">
-        <v>32.963138082419249</v>
+        <v>32.654401160034332</v>
       </c>
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
@@ -29995,10 +29997,10 @@
         <v>23.102402219660181</v>
       </c>
       <c r="W157" s="23">
-        <v>29.406832710563581</v>
+        <v>29.510791210056876</v>
       </c>
       <c r="X157" s="23">
-        <v>28.107157300224912</v>
+        <v>28.386974151235066</v>
       </c>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876FEA0-E5DF-49BC-B91F-9B4D30B91CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2766B03-5D7E-440C-A8BE-C208E88F7709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$X$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$Y$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23586,18 +23589,18 @@
   <dimension ref="A1:BQ165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="61" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="24" width="9.77734375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="9.77734375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
@@ -23612,7 +23615,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
@@ -23622,7 +23625,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
@@ -23657,6 +23660,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23730,6 +23734,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23808,7 +23815,9 @@
       <c r="X12" s="8">
         <v>1262795.42508541</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>1434698.9168324342</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23927,7 +23936,9 @@
       <c r="X13" s="8">
         <v>1056555.5778134847</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>1199578.4286245119</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24046,7 +24057,9 @@
       <c r="X14" s="8">
         <v>914295.53559647955</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>1009816.9136142978</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24236,7 +24249,9 @@
       <c r="X16" s="11">
         <v>3233646.5384953744</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="11">
+        <v>3644094.2590712439</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24307,6 +24322,7 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -24333,7 +24349,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -24452,7 +24468,9 @@
       <c r="X19" s="8">
         <v>1613641.1286973907</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="8">
+        <v>1831828.3069369076</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -24523,6 +24541,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -24548,7 +24567,7 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
@@ -24558,7 +24577,7 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
@@ -24593,6 +24612,7 @@
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -24666,6 +24686,9 @@
       </c>
       <c r="X34" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y34" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="35" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24744,7 +24767,9 @@
       <c r="X36" s="8">
         <v>1088001.0694671241</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="8">
+        <v>1193254.3253968738</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -24863,7 +24888,9 @@
       <c r="X37" s="8">
         <v>911942.4432660453</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="8">
+        <v>1004187.6748506182</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -24982,7 +25009,9 @@
       <c r="X38" s="8">
         <v>792765.61948074494</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="8">
+        <v>847219.0676694779</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -25172,7 +25201,9 @@
       <c r="X40" s="11">
         <v>2792709.1322139143</v>
       </c>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="11">
+        <v>3044661.0679169698</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -25243,6 +25274,7 @@
       <c r="V41" s="12"/>
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -25269,7 +25301,7 @@
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="11"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -25388,7 +25420,9 @@
       <c r="X43" s="8">
         <v>1384859.0973726278</v>
       </c>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="8">
+        <v>1506287.2338823418</v>
+      </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -25459,6 +25493,7 @@
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -25624,7 +25659,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.2">
@@ -25637,7 +25672,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.2">
@@ -25672,6 +25707,7 @@
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -25743,7 +25779,10 @@
       <c r="W58" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="X58" s="19"/>
+      <c r="X58" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y58" s="19"/>
     </row>
     <row r="59" spans="1:60" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -25818,8 +25857,10 @@
       <c r="W60" s="20">
         <v>21.225494563183219</v>
       </c>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="9"/>
+      <c r="X60" s="20">
+        <v>13.612932731000143</v>
+      </c>
+      <c r="Y60" s="20"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -25926,8 +25967,10 @@
       <c r="W61" s="20">
         <v>24.241622177960778</v>
       </c>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="9"/>
+      <c r="X61" s="20">
+        <v>13.536708698941283</v>
+      </c>
+      <c r="Y61" s="20"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -26034,8 +26077,10 @@
       <c r="W62" s="20">
         <v>15.77936542895246</v>
       </c>
-      <c r="X62" s="20"/>
-      <c r="Y62" s="9"/>
+      <c r="X62" s="20">
+        <v>10.447538492627629</v>
+      </c>
+      <c r="Y62" s="20"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -26097,7 +26142,7 @@
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
       <c r="X63" s="21"/>
-      <c r="Y63" s="9"/>
+      <c r="Y63" s="21"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -26204,8 +26249,10 @@
       <c r="W64" s="20">
         <v>20.578232958975434</v>
       </c>
-      <c r="X64" s="20"/>
-      <c r="Y64" s="9"/>
+      <c r="X64" s="20">
+        <v>12.693029856220846</v>
+      </c>
+      <c r="Y64" s="20"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -26267,6 +26314,7 @@
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
       <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -26293,7 +26341,7 @@
       <c r="V66" s="20"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
-      <c r="Y66" s="9"/>
+      <c r="Y66" s="20"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -26400,8 +26448,10 @@
       <c r="W67" s="20">
         <v>19.767704449022361</v>
       </c>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="9"/>
+      <c r="X67" s="20">
+        <v>13.5214190044628</v>
+      </c>
+      <c r="Y67" s="20"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -26463,6 +26513,7 @@
       <c r="V68" s="14"/>
       <c r="W68" s="14"/>
       <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -26610,7 +26661,7 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.2">
@@ -26620,7 +26671,7 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
@@ -26655,6 +26706,7 @@
       <c r="V81" s="18"/>
       <c r="W81" s="18"/>
       <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
     </row>
     <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -26726,7 +26778,10 @@
       <c r="W82" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="X82" s="17"/>
+      <c r="X82" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y82" s="17"/>
     </row>
     <row r="83" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -26801,8 +26856,10 @@
       <c r="W84" s="20">
         <v>12.655949455365516</v>
       </c>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="9"/>
+      <c r="X84" s="20">
+        <v>9.6740029843261226</v>
+      </c>
+      <c r="Y84" s="20"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
@@ -26909,8 +26966,10 @@
       <c r="W85" s="20">
         <v>15.483478961512702</v>
       </c>
-      <c r="X85" s="20"/>
-      <c r="Y85" s="9"/>
+      <c r="X85" s="20">
+        <v>10.11524710421466</v>
+      </c>
+      <c r="Y85" s="20"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
@@ -27017,8 +27076,10 @@
       <c r="W86" s="20">
         <v>7.8695624479173887</v>
       </c>
-      <c r="X86" s="20"/>
-      <c r="Y86" s="9"/>
+      <c r="X86" s="20">
+        <v>6.8687953728870639</v>
+      </c>
+      <c r="Y86" s="20"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
@@ -27080,7 +27141,7 @@
       <c r="V87" s="21"/>
       <c r="W87" s="21"/>
       <c r="X87" s="21"/>
-      <c r="Y87" s="9"/>
+      <c r="Y87" s="21"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -27187,8 +27248,10 @@
       <c r="W88" s="20">
         <v>12.140030084262477</v>
       </c>
-      <c r="X88" s="20"/>
-      <c r="Y88" s="9"/>
+      <c r="X88" s="20">
+        <v>9.021775049781894</v>
+      </c>
+      <c r="Y88" s="20"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -27250,6 +27313,7 @@
       <c r="V89" s="22"/>
       <c r="W89" s="22"/>
       <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -27276,7 +27340,7 @@
       <c r="V90" s="20"/>
       <c r="W90" s="20"/>
       <c r="X90" s="20"/>
-      <c r="Y90" s="9"/>
+      <c r="Y90" s="20"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -27383,8 +27447,10 @@
       <c r="W91" s="20">
         <v>12.124707064843477</v>
       </c>
-      <c r="X91" s="20"/>
-      <c r="Y91" s="9"/>
+      <c r="X91" s="20">
+        <v>8.7682665146287491</v>
+      </c>
+      <c r="Y91" s="20"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -27446,6 +27512,7 @@
       <c r="V92" s="14"/>
       <c r="W92" s="14"/>
       <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -27606,7 +27673,7 @@
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.2">
@@ -27616,7 +27683,7 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.2">
@@ -27651,6 +27718,7 @@
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
+      <c r="Y104" s="5"/>
     </row>
     <row r="105" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
@@ -27724,6 +27792,9 @@
       </c>
       <c r="X105" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y105" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="106" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27802,7 +27873,9 @@
       <c r="X107" s="23">
         <v>116.06564189352275</v>
       </c>
-      <c r="Y107" s="9"/>
+      <c r="Y107" s="23">
+        <v>120.23412664816919</v>
+      </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -27921,7 +27994,9 @@
       <c r="X108" s="23">
         <v>115.85770413640574</v>
       </c>
-      <c r="Y108" s="9"/>
+      <c r="Y108" s="23">
+        <v>119.45759330325976</v>
+      </c>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
@@ -28040,7 +28115,9 @@
       <c r="X109" s="23">
         <v>115.32986712962348</v>
       </c>
-      <c r="Y109" s="9"/>
+      <c r="Y109" s="23">
+        <v>119.19194835783058</v>
+      </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
@@ -28230,7 +28307,9 @@
       <c r="X111" s="23">
         <v>115.78887687211119</v>
       </c>
-      <c r="Y111" s="9"/>
+      <c r="Y111" s="23">
+        <v>119.68801051357684</v>
+      </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -28301,6 +28380,7 @@
       <c r="V112" s="12"/>
       <c r="W112" s="12"/>
       <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
     </row>
     <row r="113" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -28327,7 +28407,7 @@
       <c r="V113" s="11"/>
       <c r="W113" s="11"/>
       <c r="X113" s="11"/>
-      <c r="Y113" s="9"/>
+      <c r="Y113" s="11"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -28446,7 +28526,9 @@
       <c r="X114" s="23">
         <v>116.52023890075249</v>
       </c>
-      <c r="Y114" s="9"/>
+      <c r="Y114" s="23">
+        <v>121.61215110450803</v>
+      </c>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -28517,6 +28599,7 @@
       <c r="V115" s="14"/>
       <c r="W115" s="14"/>
       <c r="X115" s="14"/>
+      <c r="Y115" s="14"/>
     </row>
     <row r="116" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -28540,7 +28623,7 @@
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.2">
@@ -28550,7 +28633,7 @@
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.2">
@@ -28585,6 +28668,7 @@
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
+      <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -28658,6 +28742,9 @@
       </c>
       <c r="X129" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y129" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="130" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28736,7 +28823,9 @@
       <c r="X131" s="23">
         <v>39.05174576294268</v>
       </c>
-      <c r="Y131" s="9"/>
+      <c r="Y131" s="23">
+        <v>39.370521584644472</v>
+      </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -28855,7 +28944,9 @@
       <c r="X132" s="23">
         <v>32.673811600481947</v>
       </c>
-      <c r="Y132" s="9"/>
+      <c r="Y132" s="23">
+        <v>32.918424808535107</v>
+      </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
@@ -28974,7 +29065,9 @@
       <c r="X133" s="23">
         <v>28.274442636575365</v>
       </c>
-      <c r="Y133" s="9"/>
+      <c r="Y133" s="23">
+        <v>27.711053606820418</v>
+      </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
@@ -29164,7 +29257,9 @@
       <c r="X135" s="23">
         <v>100</v>
       </c>
-      <c r="Y135" s="9"/>
+      <c r="Y135" s="23">
+        <v>100</v>
+      </c>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
@@ -29235,6 +29330,7 @@
       <c r="V136" s="12"/>
       <c r="W136" s="12"/>
       <c r="X136" s="12"/>
+      <c r="Y136" s="12"/>
     </row>
     <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -29261,7 +29357,7 @@
       <c r="V137" s="11"/>
       <c r="W137" s="11"/>
       <c r="X137" s="11"/>
-      <c r="Y137" s="9"/>
+      <c r="Y137" s="11"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -29332,7 +29428,7 @@
       <c r="V138" s="11"/>
       <c r="W138" s="11"/>
       <c r="X138" s="11"/>
-      <c r="Y138" s="9"/>
+      <c r="Y138" s="11"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -29403,6 +29499,7 @@
       <c r="V139" s="14"/>
       <c r="W139" s="14"/>
       <c r="X139" s="14"/>
+      <c r="Y139" s="14"/>
     </row>
     <row r="140" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -29568,7 +29665,7 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.2">
@@ -29578,7 +29675,7 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.2">
@@ -29613,6 +29710,7 @@
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -29686,6 +29784,9 @@
       </c>
       <c r="X153" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y153" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="154" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29764,7 +29865,9 @@
       <c r="X155" s="23">
         <v>38.958624688730595</v>
       </c>
-      <c r="Y155" s="9"/>
+      <c r="Y155" s="23">
+        <v>39.19169650673954</v>
+      </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
@@ -29883,7 +29986,9 @@
       <c r="X156" s="23">
         <v>32.654401160034332</v>
       </c>
-      <c r="Y156" s="9"/>
+      <c r="Y156" s="23">
+        <v>32.981919906692326</v>
+      </c>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
@@ -30002,7 +30107,9 @@
       <c r="X157" s="23">
         <v>28.386974151235066</v>
       </c>
-      <c r="Y157" s="9"/>
+      <c r="Y157" s="23">
+        <v>27.826383586568138</v>
+      </c>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
@@ -30192,7 +30299,9 @@
       <c r="X159" s="23">
         <v>100</v>
       </c>
-      <c r="Y159" s="9"/>
+      <c r="Y159" s="23">
+        <v>100</v>
+      </c>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
@@ -30263,6 +30372,7 @@
       <c r="V160" s="12"/>
       <c r="W160" s="12"/>
       <c r="X160" s="12"/>
+      <c r="Y160" s="12"/>
     </row>
     <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -30289,7 +30399,7 @@
       <c r="V161" s="11"/>
       <c r="W161" s="11"/>
       <c r="X161" s="11"/>
-      <c r="Y161" s="9"/>
+      <c r="Y161" s="11"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -30360,7 +30470,7 @@
       <c r="V162" s="11"/>
       <c r="W162" s="11"/>
       <c r="X162" s="11"/>
-      <c r="Y162" s="9"/>
+      <c r="Y162" s="11"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -30431,6 +30541,7 @@
       <c r="V163" s="14"/>
       <c r="W163" s="14"/>
       <c r="X163" s="14"/>
+      <c r="Y163" s="14"/>
     </row>
     <row r="164" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -30448,9 +30559,9 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="23" man="1"/>
-    <brk id="96" max="23" man="1"/>
-    <brk id="119" max="23" man="1"/>
+    <brk id="48" max="24" man="1"/>
+    <brk id="96" max="24" man="1"/>
+    <brk id="119" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2766B03-5D7E-440C-A8BE-C208E88F7709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9809FF-D12E-41EA-8A4F-95D709845A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -621,13 +621,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23589,51 +23589,51 @@
   <dimension ref="A1:BQ165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="61" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="9.77734375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="38.1796875" style="1" customWidth="1"/>
+    <col min="2" max="25" width="9.81640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -23662,7 +23662,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -23739,10 +23739,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -23813,10 +23813,10 @@
         <v>1041691.2957424447</v>
       </c>
       <c r="X12" s="8">
-        <v>1262795.42508541</v>
+        <v>1262443.3073112834</v>
       </c>
       <c r="Y12" s="8">
-        <v>1434698.9168324342</v>
+        <v>1431837.708180482</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -23863,7 +23863,7 @@
       <c r="BP12" s="9"/>
       <c r="BQ12" s="9"/>
     </row>
-    <row r="13" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -23934,10 +23934,10 @@
         <v>850403.88180065725</v>
       </c>
       <c r="X13" s="8">
-        <v>1056555.5778134847</v>
+        <v>1058722.3684431568</v>
       </c>
       <c r="Y13" s="8">
-        <v>1199578.4286245119</v>
+        <v>1200826.9448333844</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -23984,7 +23984,7 @@
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
     </row>
-    <row r="14" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -24055,10 +24055,10 @@
         <v>789687.81026661722</v>
       </c>
       <c r="X14" s="8">
-        <v>914295.53559647955</v>
+        <v>914247.42882896191</v>
       </c>
       <c r="Y14" s="8">
-        <v>1009816.9136142978</v>
+        <v>1012295.6006522161</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -24105,7 +24105,7 @@
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
     </row>
-    <row r="15" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -24176,7 +24176,7 @@
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
@@ -24247,10 +24247,10 @@
         <v>2681782.9878097191</v>
       </c>
       <c r="X16" s="11">
-        <v>3233646.5384953744</v>
+        <v>3235413.1045834022</v>
       </c>
       <c r="Y16" s="11">
-        <v>3644094.2590712439</v>
+        <v>3644960.2536660824</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -24297,7 +24297,7 @@
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
     </row>
-    <row r="17" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -24324,7 +24324,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -24395,7 +24395,7 @@
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -24466,10 +24466,10 @@
         <v>1347309.0564111271</v>
       </c>
       <c r="X19" s="8">
-        <v>1613641.1286973907</v>
+        <v>1615246.627830148</v>
       </c>
       <c r="Y19" s="8">
-        <v>1831828.3069369076</v>
+        <v>1832724.6193761146</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -24516,7 +24516,7 @@
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
     </row>
-    <row r="20" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -24543,49 +24543,49 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:69" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:69" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:69" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:69" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -24614,7 +24614,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -24691,10 +24691,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -24765,10 +24765,10 @@
         <v>965773.29002778663</v>
       </c>
       <c r="X36" s="8">
-        <v>1088001.0694671241</v>
+        <v>1086582.9043949356</v>
       </c>
       <c r="Y36" s="8">
-        <v>1193254.3253968738</v>
+        <v>1191478.3878643929</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -24815,7 +24815,7 @@
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
     </row>
-    <row r="37" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -24886,10 +24886,10 @@
         <v>789673.5112820504</v>
       </c>
       <c r="X37" s="8">
-        <v>911942.4432660453</v>
+        <v>913583.67250186147</v>
       </c>
       <c r="Y37" s="8">
-        <v>1004187.6748506182</v>
+        <v>1005831.3113666899</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -24936,7 +24936,7 @@
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
     </row>
-    <row r="38" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -25007,10 +25007,10 @@
         <v>734929.8555498597</v>
       </c>
       <c r="X38" s="8">
-        <v>792765.61948074494</v>
+        <v>792307.75659522298</v>
       </c>
       <c r="Y38" s="8">
-        <v>847219.0676694779</v>
+        <v>849846.67816311773</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -25057,7 +25057,7 @@
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
     </row>
-    <row r="39" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -25128,7 +25128,7 @@
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>1</v>
       </c>
@@ -25199,10 +25199,10 @@
         <v>2490376.6568596968</v>
       </c>
       <c r="X40" s="11">
-        <v>2792709.1322139143</v>
+        <v>2792474.3334920201</v>
       </c>
       <c r="Y40" s="11">
-        <v>3044661.0679169698</v>
+        <v>3047156.3773942003</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -25249,7 +25249,7 @@
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
     </row>
-    <row r="41" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -25276,7 +25276,7 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -25347,7 +25347,7 @@
       <c r="BP42" s="9"/>
       <c r="BQ42" s="9"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -25418,10 +25418,10 @@
         <v>1235106.1007202829</v>
       </c>
       <c r="X43" s="8">
-        <v>1384859.0973726278</v>
+        <v>1385185.8574153748</v>
       </c>
       <c r="Y43" s="8">
-        <v>1506287.2338823418</v>
+        <v>1506784.133241347</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -25468,7 +25468,7 @@
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
     </row>
-    <row r="44" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -25495,17 +25495,17 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -25576,7 +25576,7 @@
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
     </row>
-    <row r="48" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -25647,40 +25647,40 @@
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
         <v>6</v>
@@ -25709,7 +25709,7 @@
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
@@ -25784,10 +25784,10 @@
       </c>
       <c r="Y58" s="19"/>
     </row>
-    <row r="59" spans="1:60" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:60" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -25855,10 +25855,10 @@
         <v>38.896554133599182</v>
       </c>
       <c r="W60" s="20">
-        <v>21.225494563183219</v>
+        <v>21.191692056090588</v>
       </c>
       <c r="X60" s="20">
-        <v>13.612932731000143</v>
+        <v>13.417980822439475</v>
       </c>
       <c r="Y60" s="20"/>
       <c r="Z60" s="9"/>
@@ -25897,7 +25897,7 @@
       <c r="BG60" s="9"/>
       <c r="BH60" s="9"/>
     </row>
-    <row r="61" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -25965,10 +25965,10 @@
         <v>-18.29691728159635</v>
       </c>
       <c r="W61" s="20">
-        <v>24.241622177960778</v>
+        <v>24.496417655267862</v>
       </c>
       <c r="X61" s="20">
-        <v>13.536708698941283</v>
+        <v>13.422270146156563</v>
       </c>
       <c r="Y61" s="20"/>
       <c r="Z61" s="9"/>
@@ -26007,7 +26007,7 @@
       <c r="BG61" s="9"/>
       <c r="BH61" s="9"/>
     </row>
-    <row r="62" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -26075,10 +26075,10 @@
         <v>45.92771487022074</v>
       </c>
       <c r="W62" s="20">
-        <v>15.77936542895246</v>
+        <v>15.773273557342932</v>
       </c>
       <c r="X62" s="20">
-        <v>10.447538492627629</v>
+        <v>10.724467877239945</v>
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="9"/>
@@ -26117,7 +26117,7 @@
       <c r="BG62" s="9"/>
       <c r="BH62" s="9"/>
     </row>
-    <row r="63" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -26179,7 +26179,7 @@
       <c r="BG63" s="9"/>
       <c r="BH63" s="9"/>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>1</v>
       </c>
@@ -26247,10 +26247,10 @@
         <v>15.000598031349924</v>
       </c>
       <c r="W64" s="20">
-        <v>20.578232958975434</v>
+        <v>20.644105779261707</v>
       </c>
       <c r="X64" s="20">
-        <v>12.693029856220846</v>
+        <v>12.658264519683769</v>
       </c>
       <c r="Y64" s="20"/>
       <c r="Z64" s="9"/>
@@ -26289,7 +26289,7 @@
       <c r="BG64" s="9"/>
       <c r="BH64" s="9"/>
     </row>
-    <row r="65" spans="1:60" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -26316,7 +26316,7 @@
       <c r="X65" s="22"/>
       <c r="Y65" s="22"/>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -26378,7 +26378,7 @@
       <c r="BG66" s="9"/>
       <c r="BH66" s="9"/>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -26446,10 +26446,10 @@
         <v>14.159439285048947</v>
       </c>
       <c r="W67" s="20">
-        <v>19.767704449022361</v>
+        <v>19.886867838084271</v>
       </c>
       <c r="X67" s="20">
-        <v>13.5214190044628</v>
+        <v>13.464073399002658</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="9"/>
@@ -26488,7 +26488,7 @@
       <c r="BG67" s="9"/>
       <c r="BH67" s="9"/>
     </row>
-    <row r="68" spans="1:60" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:60" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -26515,17 +26515,17 @@
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -26587,7 +26587,7 @@
       <c r="BG71" s="9"/>
       <c r="BH71" s="9"/>
     </row>
-    <row r="72" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -26649,37 +26649,37 @@
       <c r="BG72" s="9"/>
       <c r="BH72" s="9"/>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="18" t="s">
         <v>6</v>
@@ -26708,7 +26708,7 @@
       <c r="X81" s="18"/>
       <c r="Y81" s="18"/>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>5</v>
       </c>
@@ -26783,10 +26783,10 @@
       </c>
       <c r="Y82" s="17"/>
     </row>
-    <row r="83" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -26854,10 +26854,10 @@
         <v>34.06520381797128</v>
       </c>
       <c r="W84" s="20">
-        <v>12.655949455365516</v>
+        <v>12.509107014511983</v>
       </c>
       <c r="X84" s="20">
-        <v>9.6740029843261226</v>
+        <v>9.6537027267025195</v>
       </c>
       <c r="Y84" s="20"/>
       <c r="Z84" s="9"/>
@@ -26896,7 +26896,7 @@
       <c r="BG84" s="9"/>
       <c r="BH84" s="9"/>
     </row>
-    <row r="85" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -26964,10 +26964,10 @@
         <v>-21.353437855329133</v>
       </c>
       <c r="W85" s="20">
-        <v>15.483478961512702</v>
+        <v>15.691315391678827</v>
       </c>
       <c r="X85" s="20">
-        <v>10.11524710421466</v>
+        <v>10.09733882526676</v>
       </c>
       <c r="Y85" s="20"/>
       <c r="Z85" s="9"/>
@@ -27006,7 +27006,7 @@
       <c r="BG85" s="9"/>
       <c r="BH85" s="9"/>
     </row>
-    <row r="86" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -27074,10 +27074,10 @@
         <v>41.856662935712791</v>
       </c>
       <c r="W86" s="20">
-        <v>7.8695624479173887</v>
+        <v>7.8072622321805625</v>
       </c>
       <c r="X86" s="20">
-        <v>6.8687953728870639</v>
+        <v>7.2621933950459265</v>
       </c>
       <c r="Y86" s="20"/>
       <c r="Z86" s="9"/>
@@ -27116,7 +27116,7 @@
       <c r="BG86" s="9"/>
       <c r="BH86" s="9"/>
     </row>
-    <row r="87" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -27178,7 +27178,7 @@
       <c r="BG87" s="9"/>
       <c r="BH87" s="9"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>1</v>
       </c>
@@ -27246,10 +27246,10 @@
         <v>11.051908481625603</v>
       </c>
       <c r="W88" s="20">
-        <v>12.140030084262477</v>
+        <v>12.130601842906003</v>
       </c>
       <c r="X88" s="20">
-        <v>9.021775049781894</v>
+        <v>9.1203002601530727</v>
       </c>
       <c r="Y88" s="20"/>
       <c r="Z88" s="9"/>
@@ -27288,7 +27288,7 @@
       <c r="BG88" s="9"/>
       <c r="BH88" s="9"/>
     </row>
-    <row r="89" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -27315,7 +27315,7 @@
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -27377,7 +27377,7 @@
       <c r="BG90" s="9"/>
       <c r="BH90" s="9"/>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -27445,10 +27445,10 @@
         <v>10.050542854806309</v>
       </c>
       <c r="W91" s="20">
-        <v>12.124707064843477</v>
+        <v>12.151163095022284</v>
       </c>
       <c r="X91" s="20">
-        <v>8.7682665146287491</v>
+        <v>8.7784808930162654</v>
       </c>
       <c r="Y91" s="20"/>
       <c r="Z91" s="9"/>
@@ -27487,7 +27487,7 @@
       <c r="BG91" s="9"/>
       <c r="BH91" s="9"/>
     </row>
-    <row r="92" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -27514,17 +27514,17 @@
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -27595,7 +27595,7 @@
       <c r="BP95" s="9"/>
       <c r="BQ95" s="9"/>
     </row>
-    <row r="96" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -27666,32 +27666,32 @@
       <c r="BP96" s="9"/>
       <c r="BQ96" s="9"/>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
         <v>6</v>
@@ -27720,7 +27720,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>5</v>
       </c>
@@ -27797,10 +27797,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="106" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -27871,10 +27871,10 @@
         <v>107.86085166141568</v>
       </c>
       <c r="X107" s="23">
-        <v>116.06564189352275</v>
+        <v>116.18472020911057</v>
       </c>
       <c r="Y107" s="23">
-        <v>120.23412664816919</v>
+        <v>120.17320018258235</v>
       </c>
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
@@ -27921,7 +27921,7 @@
       <c r="BP107" s="9"/>
       <c r="BQ107" s="9"/>
     </row>
-    <row r="108" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -27992,10 +27992,10 @@
         <v>107.69056700661137</v>
       </c>
       <c r="X108" s="23">
-        <v>115.85770413640574</v>
+        <v>115.8867436349679</v>
       </c>
       <c r="Y108" s="23">
-        <v>119.45759330325976</v>
+        <v>119.38651454404825</v>
       </c>
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
@@ -28042,7 +28042,7 @@
       <c r="BP108" s="9"/>
       <c r="BQ108" s="9"/>
     </row>
-    <row r="109" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -28113,10 +28113,10 @@
         <v>107.45077292795362</v>
       </c>
       <c r="X109" s="23">
-        <v>115.32986712962348</v>
+        <v>115.39044281956158</v>
       </c>
       <c r="Y109" s="23">
-        <v>119.19194835783058</v>
+        <v>119.11508589293072</v>
       </c>
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
@@ -28163,7 +28163,7 @@
       <c r="BP109" s="9"/>
       <c r="BQ109" s="9"/>
     </row>
-    <row r="110" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -28234,7 +28234,7 @@
       <c r="BP110" s="9"/>
       <c r="BQ110" s="9"/>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>1</v>
       </c>
@@ -28305,10 +28305,10 @@
         <v>107.68583862295678</v>
       </c>
       <c r="X111" s="23">
-        <v>115.78887687211119</v>
+        <v>115.86187438784737</v>
       </c>
       <c r="Y111" s="23">
-        <v>119.68801051357684</v>
+        <v>119.61841803416399</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -28355,7 +28355,7 @@
       <c r="BP111" s="9"/>
       <c r="BQ111" s="9"/>
     </row>
-    <row r="112" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -28382,7 +28382,7 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -28453,7 +28453,7 @@
       <c r="BP113" s="9"/>
       <c r="BQ113" s="9"/>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>11</v>
       </c>
@@ -28524,10 +28524,10 @@
         <v>109.08447910875108</v>
       </c>
       <c r="X114" s="23">
-        <v>116.52023890075249</v>
+        <v>116.60865718366809</v>
       </c>
       <c r="Y114" s="23">
-        <v>121.61215110450803</v>
+        <v>121.63153161386259</v>
       </c>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -28574,7 +28574,7 @@
       <c r="BP114" s="9"/>
       <c r="BQ114" s="9"/>
     </row>
-    <row r="115" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -28601,47 +28601,47 @@
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>6</v>
@@ -28670,7 +28670,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
@@ -28747,10 +28747,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="130" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
@@ -28821,10 +28821,10 @@
         <v>38.843236029072607</v>
       </c>
       <c r="X131" s="23">
-        <v>39.05174576294268</v>
+        <v>39.01953990119101</v>
       </c>
       <c r="Y131" s="23">
-        <v>39.370521584644472</v>
+        <v>39.282670002789381</v>
       </c>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -28871,7 +28871,7 @@
       <c r="BP131" s="9"/>
       <c r="BQ131" s="9"/>
     </row>
-    <row r="132" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -28942,10 +28942,10 @@
         <v>31.710391395062281</v>
       </c>
       <c r="X132" s="23">
-        <v>32.673811600481947</v>
+        <v>32.722942456508342</v>
       </c>
       <c r="Y132" s="23">
-        <v>32.918424808535107</v>
+        <v>32.944857042696114</v>
       </c>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
@@ -28992,7 +28992,7 @@
       <c r="BP132" s="9"/>
       <c r="BQ132" s="9"/>
     </row>
-    <row r="133" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -29063,10 +29063,10 @@
         <v>29.446372575865116</v>
       </c>
       <c r="X133" s="23">
-        <v>28.274442636575365</v>
+        <v>28.257517642300645</v>
       </c>
       <c r="Y133" s="23">
-        <v>27.711053606820418</v>
+        <v>27.772472954514509</v>
       </c>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -29113,7 +29113,7 @@
       <c r="BP133" s="9"/>
       <c r="BQ133" s="9"/>
     </row>
-    <row r="134" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -29184,7 +29184,7 @@
       <c r="BP134" s="9"/>
       <c r="BQ134" s="9"/>
     </row>
-    <row r="135" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>1</v>
       </c>
@@ -29305,7 +29305,7 @@
       <c r="BP135" s="9"/>
       <c r="BQ135" s="9"/>
     </row>
-    <row r="136" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -29332,7 +29332,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
     </row>
-    <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -29403,7 +29403,7 @@
       <c r="BP137" s="9"/>
       <c r="BQ137" s="9"/>
     </row>
-    <row r="138" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -29474,7 +29474,7 @@
       <c r="BP138" s="9"/>
       <c r="BQ138" s="9"/>
     </row>
-    <row r="139" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -29501,17 +29501,17 @@
       <c r="X139" s="14"/>
       <c r="Y139" s="14"/>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -29582,7 +29582,7 @@
       <c r="BP142" s="9"/>
       <c r="BQ142" s="9"/>
     </row>
-    <row r="143" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -29653,37 +29653,37 @@
       <c r="BP143" s="9"/>
       <c r="BQ143" s="9"/>
     </row>
-    <row r="144" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="150" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
         <v>6</v>
@@ -29712,7 +29712,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>5</v>
       </c>
@@ -29789,10 +29789,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="154" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
     </row>
-    <row r="155" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>4</v>
       </c>
@@ -29863,10 +29863,10 @@
         <v>38.780209707137345</v>
       </c>
       <c r="X155" s="23">
-        <v>38.958624688730595</v>
+        <v>38.911115184222716</v>
       </c>
       <c r="Y155" s="23">
-        <v>39.19169650673954</v>
+        <v>39.101320716703583</v>
       </c>
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
@@ -29913,7 +29913,7 @@
       <c r="BP155" s="9"/>
       <c r="BQ155" s="9"/>
     </row>
-    <row r="156" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
@@ -29984,10 +29984,10 @@
         <v>31.708999082805779</v>
       </c>
       <c r="X156" s="23">
-        <v>32.654401160034332</v>
+        <v>32.71592012662888</v>
       </c>
       <c r="Y156" s="23">
-        <v>32.981919906692326</v>
+        <v>33.008851098965728</v>
       </c>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
@@ -30034,7 +30034,7 @@
       <c r="BP156" s="9"/>
       <c r="BQ156" s="9"/>
     </row>
-    <row r="157" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
@@ -30105,10 +30105,10 @@
         <v>29.510791210056876</v>
       </c>
       <c r="X157" s="23">
-        <v>28.386974151235066</v>
+        <v>28.3729646891484</v>
       </c>
       <c r="Y157" s="23">
-        <v>27.826383586568138</v>
+        <v>27.889828184330689</v>
       </c>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
@@ -30155,7 +30155,7 @@
       <c r="BP157" s="9"/>
       <c r="BQ157" s="9"/>
     </row>
-    <row r="158" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -30226,7 +30226,7 @@
       <c r="BP158" s="9"/>
       <c r="BQ158" s="9"/>
     </row>
-    <row r="159" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>1</v>
       </c>
@@ -30347,7 +30347,7 @@
       <c r="BP159" s="9"/>
       <c r="BQ159" s="9"/>
     </row>
-    <row r="160" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -30374,7 +30374,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
     </row>
-    <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -30445,7 +30445,7 @@
       <c r="BP161" s="9"/>
       <c r="BQ161" s="9"/>
     </row>
-    <row r="162" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -30516,7 +30516,7 @@
       <c r="BP162" s="9"/>
       <c r="BQ162" s="9"/>
     </row>
-    <row r="163" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -30543,12 +30543,12 @@
       <c r="X163" s="14"/>
       <c r="Y163" s="14"/>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9809FF-D12E-41EA-8A4F-95D709845A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB2E420-C9A4-4ABC-9950-ABE9B959C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$Y$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$Z$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -719,12 +722,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -768,12 +772,13 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Comma 3" xfId="4" xr:uid="{5373AF50-BD68-4584-9FE9-C28501FB5E64}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{6FBA934C-6EBA-42CF-8EB6-70D1EDEE8894}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23589,51 +23594,51 @@
   <dimension ref="A1:BQ165"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="61" zoomScaleNormal="70" zoomScaleSheetLayoutView="61" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="9.81640625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
+    <col min="2" max="26" width="9.77734375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -23661,8 +23666,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -23738,11 +23744,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -23818,7 +23827,9 @@
       <c r="Y12" s="8">
         <v>1431837.708180482</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>1624944.8706620194</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -23863,7 +23874,7 @@
       <c r="BP12" s="9"/>
       <c r="BQ12" s="9"/>
     </row>
-    <row r="13" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -23939,7 +23950,9 @@
       <c r="Y13" s="8">
         <v>1200826.9448333844</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>1341482.5073813004</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -23984,7 +23997,7 @@
       <c r="BP13" s="9"/>
       <c r="BQ13" s="9"/>
     </row>
-    <row r="14" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -24060,7 +24073,9 @@
       <c r="Y14" s="8">
         <v>1012295.6006522161</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>1104116.3601976512</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -24105,7 +24120,7 @@
       <c r="BP14" s="9"/>
       <c r="BQ14" s="9"/>
     </row>
-    <row r="15" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -24176,7 +24191,7 @@
       <c r="BP15" s="9"/>
       <c r="BQ15" s="9"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
@@ -24252,7 +24267,9 @@
       <c r="Y16" s="11">
         <v>3644960.2536660824</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="11">
+        <v>4070543.7382409712</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -24297,7 +24314,7 @@
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9"/>
     </row>
-    <row r="17" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -24323,8 +24340,9 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -24350,7 +24368,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="11"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -24395,7 +24413,7 @@
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -24471,7 +24489,9 @@
       <c r="Y19" s="8">
         <v>1832724.6193761146</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="8">
+        <v>2046592.5174483522</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -24516,7 +24536,7 @@
       <c r="BP19" s="9"/>
       <c r="BQ19" s="9"/>
     </row>
-    <row r="20" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -24542,50 +24562,51 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:69" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:69" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:69" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>6</v>
@@ -24613,8 +24634,9 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -24690,11 +24712,14 @@
       <c r="Y34" s="17">
         <v>2023</v>
       </c>
+      <c r="Z34" s="17">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="35" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -24770,7 +24795,9 @@
       <c r="Y36" s="8">
         <v>1191478.3878643929</v>
       </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="8">
+        <v>1338051.7413380928</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
@@ -24815,7 +24842,7 @@
       <c r="BP36" s="9"/>
       <c r="BQ36" s="9"/>
     </row>
-    <row r="37" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -24891,7 +24918,9 @@
       <c r="Y37" s="8">
         <v>1005831.3113666899</v>
       </c>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="8">
+        <v>1106954.436054802</v>
+      </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -24936,7 +24965,7 @@
       <c r="BP37" s="9"/>
       <c r="BQ37" s="9"/>
     </row>
-    <row r="38" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -25012,7 +25041,9 @@
       <c r="Y38" s="8">
         <v>849846.67816311773</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="8">
+        <v>918554.81458416069</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -25057,7 +25088,7 @@
       <c r="BP38" s="9"/>
       <c r="BQ38" s="9"/>
     </row>
-    <row r="39" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -25128,7 +25159,7 @@
       <c r="BP39" s="9"/>
       <c r="BQ39" s="9"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>1</v>
       </c>
@@ -25204,7 +25235,9 @@
       <c r="Y40" s="11">
         <v>3047156.3773942003</v>
       </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="11">
+        <v>3363560.9919770556</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -25249,7 +25282,7 @@
       <c r="BP40" s="9"/>
       <c r="BQ40" s="9"/>
     </row>
-    <row r="41" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -25275,8 +25308,9 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -25302,7 +25336,7 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="11"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -25347,7 +25381,7 @@
       <c r="BP42" s="9"/>
       <c r="BQ42" s="9"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -25423,7 +25457,9 @@
       <c r="Y43" s="8">
         <v>1506784.133241347</v>
       </c>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="8">
+        <v>1661787.6382280597</v>
+      </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -25468,7 +25504,7 @@
       <c r="BP43" s="9"/>
       <c r="BQ43" s="9"/>
     </row>
-    <row r="44" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -25494,18 +25530,19 @@
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -25576,7 +25613,7 @@
       <c r="BP47" s="9"/>
       <c r="BQ47" s="9"/>
     </row>
-    <row r="48" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -25647,40 +25684,40 @@
       <c r="BP48" s="9"/>
       <c r="BQ48" s="9"/>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="18" t="s">
         <v>6</v>
@@ -25708,8 +25745,9 @@
       <c r="W57" s="18"/>
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
@@ -25782,12 +25820,15 @@
       <c r="X58" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Y58" s="19"/>
+      <c r="Y58" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:60" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -25860,8 +25901,10 @@
       <c r="X60" s="20">
         <v>13.417980822439475</v>
       </c>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="9"/>
+      <c r="Y60" s="20">
+        <v>13.486665519301738</v>
+      </c>
+      <c r="Z60" s="20"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
@@ -25897,7 +25940,7 @@
       <c r="BG60" s="9"/>
       <c r="BH60" s="9"/>
     </row>
-    <row r="61" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -25970,8 +26013,10 @@
       <c r="X61" s="20">
         <v>13.422270146156563</v>
       </c>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="9"/>
+      <c r="Y61" s="20">
+        <v>11.713225053209669</v>
+      </c>
+      <c r="Z61" s="20"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
@@ -26007,7 +26052,7 @@
       <c r="BG61" s="9"/>
       <c r="BH61" s="9"/>
     </row>
-    <row r="62" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -26080,8 +26125,10 @@
       <c r="X62" s="20">
         <v>10.724467877239945</v>
       </c>
-      <c r="Y62" s="20"/>
-      <c r="Z62" s="9"/>
+      <c r="Y62" s="20">
+        <v>9.0705481171977453</v>
+      </c>
+      <c r="Z62" s="20"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -26117,7 +26164,7 @@
       <c r="BG62" s="9"/>
       <c r="BH62" s="9"/>
     </row>
-    <row r="63" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -26143,7 +26190,7 @@
       <c r="W63" s="21"/>
       <c r="X63" s="21"/>
       <c r="Y63" s="21"/>
-      <c r="Z63" s="9"/>
+      <c r="Z63" s="21"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -26179,7 +26226,7 @@
       <c r="BG63" s="9"/>
       <c r="BH63" s="9"/>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>1</v>
       </c>
@@ -26252,8 +26299,10 @@
       <c r="X64" s="20">
         <v>12.658264519683769</v>
       </c>
-      <c r="Y64" s="20"/>
-      <c r="Z64" s="9"/>
+      <c r="Y64" s="20">
+        <v>11.675943081871452</v>
+      </c>
+      <c r="Z64" s="20"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -26289,7 +26338,7 @@
       <c r="BG64" s="9"/>
       <c r="BH64" s="9"/>
     </row>
-    <row r="65" spans="1:60" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -26315,8 +26364,9 @@
       <c r="W65" s="22"/>
       <c r="X65" s="22"/>
       <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -26342,7 +26392,7 @@
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
-      <c r="Z66" s="9"/>
+      <c r="Z66" s="20"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -26378,7 +26428,7 @@
       <c r="BG66" s="9"/>
       <c r="BH66" s="9"/>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -26451,8 +26501,10 @@
       <c r="X67" s="20">
         <v>13.464073399002658</v>
       </c>
-      <c r="Y67" s="20"/>
-      <c r="Z67" s="9"/>
+      <c r="Y67" s="20">
+        <v>11.669396253597625</v>
+      </c>
+      <c r="Z67" s="20"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -26488,7 +26540,7 @@
       <c r="BG67" s="9"/>
       <c r="BH67" s="9"/>
     </row>
-    <row r="68" spans="1:60" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:60" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -26514,18 +26566,19 @@
       <c r="W68" s="14"/>
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -26587,7 +26640,7 @@
       <c r="BG71" s="9"/>
       <c r="BH71" s="9"/>
     </row>
-    <row r="72" spans="1:60" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -26649,37 +26702,37 @@
       <c r="BG72" s="9"/>
       <c r="BH72" s="9"/>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="18" t="s">
         <v>6</v>
@@ -26707,8 +26760,9 @@
       <c r="W81" s="18"/>
       <c r="X81" s="18"/>
       <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>5</v>
       </c>
@@ -26781,12 +26835,15 @@
       <c r="X82" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Y82" s="17"/>
+      <c r="Y82" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z82" s="17"/>
     </row>
-    <row r="83" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
@@ -26859,8 +26916,10 @@
       <c r="X84" s="20">
         <v>9.6537027267025195</v>
       </c>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="9"/>
+      <c r="Y84" s="20">
+        <v>12.301805468449828</v>
+      </c>
+      <c r="Z84" s="20"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
@@ -26896,7 +26955,7 @@
       <c r="BG84" s="9"/>
       <c r="BH84" s="9"/>
     </row>
-    <row r="85" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -26969,8 +27028,10 @@
       <c r="X85" s="20">
         <v>10.09733882526676</v>
       </c>
-      <c r="Y85" s="20"/>
-      <c r="Z85" s="9"/>
+      <c r="Y85" s="20">
+        <v>10.053686293649932</v>
+      </c>
+      <c r="Z85" s="20"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
@@ -27006,7 +27067,7 @@
       <c r="BG85" s="9"/>
       <c r="BH85" s="9"/>
     </row>
-    <row r="86" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
@@ -27079,8 +27140,10 @@
       <c r="X86" s="20">
         <v>7.2621933950459265</v>
       </c>
-      <c r="Y86" s="20"/>
-      <c r="Z86" s="9"/>
+      <c r="Y86" s="20">
+        <v>8.0847684866581631</v>
+      </c>
+      <c r="Z86" s="20"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
@@ -27116,7 +27179,7 @@
       <c r="BG86" s="9"/>
       <c r="BH86" s="9"/>
     </row>
-    <row r="87" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -27142,7 +27205,7 @@
       <c r="W87" s="21"/>
       <c r="X87" s="21"/>
       <c r="Y87" s="21"/>
-      <c r="Z87" s="9"/>
+      <c r="Z87" s="21"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -27178,7 +27241,7 @@
       <c r="BG87" s="9"/>
       <c r="BH87" s="9"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>1</v>
       </c>
@@ -27251,8 +27314,10 @@
       <c r="X88" s="20">
         <v>9.1203002601530727</v>
       </c>
-      <c r="Y88" s="20"/>
-      <c r="Z88" s="9"/>
+      <c r="Y88" s="20">
+        <v>10.383602788821463</v>
+      </c>
+      <c r="Z88" s="20"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -27288,7 +27353,7 @@
       <c r="BG88" s="9"/>
       <c r="BH88" s="9"/>
     </row>
-    <row r="89" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -27314,8 +27379,9 @@
       <c r="W89" s="22"/>
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -27341,7 +27407,7 @@
       <c r="W90" s="20"/>
       <c r="X90" s="20"/>
       <c r="Y90" s="20"/>
-      <c r="Z90" s="9"/>
+      <c r="Z90" s="20"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -27377,7 +27443,7 @@
       <c r="BG90" s="9"/>
       <c r="BH90" s="9"/>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -27450,8 +27516,10 @@
       <c r="X91" s="20">
         <v>8.7784808930162654</v>
       </c>
-      <c r="Y91" s="20"/>
-      <c r="Z91" s="9"/>
+      <c r="Y91" s="20">
+        <v>10.287041226885904</v>
+      </c>
+      <c r="Z91" s="20"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
@@ -27487,7 +27555,7 @@
       <c r="BG91" s="9"/>
       <c r="BH91" s="9"/>
     </row>
-    <row r="92" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -27513,18 +27581,19 @@
       <c r="W92" s="14"/>
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -27595,7 +27664,7 @@
       <c r="BP95" s="9"/>
       <c r="BQ95" s="9"/>
     </row>
-    <row r="96" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -27666,32 +27735,32 @@
       <c r="BP96" s="9"/>
       <c r="BQ96" s="9"/>
     </row>
-    <row r="97" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="5" t="s">
         <v>6</v>
@@ -27719,8 +27788,9 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>5</v>
       </c>
@@ -27796,11 +27866,14 @@
       <c r="Y105" s="17">
         <v>2023</v>
       </c>
+      <c r="Z105" s="17">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="106" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
     </row>
-    <row r="107" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>4</v>
       </c>
@@ -27876,7 +27949,9 @@
       <c r="Y107" s="23">
         <v>120.17320018258235</v>
       </c>
-      <c r="Z107" s="9"/>
+      <c r="Z107" s="23">
+        <v>121.4411087748389</v>
+      </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
@@ -27921,7 +27996,7 @@
       <c r="BP107" s="9"/>
       <c r="BQ107" s="9"/>
     </row>
-    <row r="108" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -27997,7 +28072,9 @@
       <c r="Y108" s="23">
         <v>119.38651454404825</v>
       </c>
-      <c r="Z108" s="9"/>
+      <c r="Z108" s="23">
+        <v>121.18678634708391</v>
+      </c>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
@@ -28042,7 +28119,7 @@
       <c r="BP108" s="9"/>
       <c r="BQ108" s="9"/>
     </row>
-    <row r="109" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -28118,7 +28195,9 @@
       <c r="Y109" s="23">
         <v>119.11508589293072</v>
       </c>
-      <c r="Z109" s="9"/>
+      <c r="Z109" s="23">
+        <v>120.20146676793546</v>
+      </c>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
@@ -28163,7 +28242,7 @@
       <c r="BP109" s="9"/>
       <c r="BQ109" s="9"/>
     </row>
-    <row r="110" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -28234,7 +28313,7 @@
       <c r="BP110" s="9"/>
       <c r="BQ110" s="9"/>
     </row>
-    <row r="111" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>1</v>
       </c>
@@ -28310,7 +28389,9 @@
       <c r="Y111" s="23">
         <v>119.61841803416399</v>
       </c>
-      <c r="Z111" s="9"/>
+      <c r="Z111" s="23">
+        <v>121.0188769566019</v>
+      </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -28355,7 +28436,7 @@
       <c r="BP111" s="9"/>
       <c r="BQ111" s="9"/>
     </row>
-    <row r="112" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:69" s="13" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -28381,8 +28462,9 @@
       <c r="W112" s="12"/>
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
     </row>
-    <row r="113" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -28408,7 +28490,7 @@
       <c r="W113" s="11"/>
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
-      <c r="Z113" s="9"/>
+      <c r="Z113" s="11"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -28453,7 +28535,7 @@
       <c r="BP113" s="9"/>
       <c r="BQ113" s="9"/>
     </row>
-    <row r="114" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>11</v>
       </c>
@@ -28529,7 +28611,9 @@
       <c r="Y114" s="23">
         <v>121.63153161386259</v>
       </c>
-      <c r="Z114" s="9"/>
+      <c r="Z114" s="23">
+        <v>123.15608025767987</v>
+      </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -28574,7 +28658,7 @@
       <c r="BP114" s="9"/>
       <c r="BQ114" s="9"/>
     </row>
-    <row r="115" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -28600,48 +28684,49 @@
       <c r="W115" s="14"/>
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
+      <c r="Z115" s="14"/>
     </row>
-    <row r="116" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A117" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="5" t="s">
         <v>6</v>
@@ -28669,8 +28754,9 @@
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
+      <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>5</v>
       </c>
@@ -28746,11 +28832,14 @@
       <c r="Y129" s="17">
         <v>2023</v>
       </c>
+      <c r="Z129" s="17">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="130" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
@@ -28826,7 +28915,9 @@
       <c r="Y131" s="23">
         <v>39.282670002789381</v>
       </c>
-      <c r="Z131" s="9"/>
+      <c r="Z131" s="23">
+        <v>39.919602273189589</v>
+      </c>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
@@ -28871,7 +28962,7 @@
       <c r="BP131" s="9"/>
       <c r="BQ131" s="9"/>
     </row>
-    <row r="132" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -28947,7 +29038,9 @@
       <c r="Y132" s="23">
         <v>32.944857042696114</v>
       </c>
-      <c r="Z132" s="9"/>
+      <c r="Z132" s="23">
+        <v>32.955855375748975</v>
+      </c>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
@@ -28992,7 +29085,7 @@
       <c r="BP132" s="9"/>
       <c r="BQ132" s="9"/>
     </row>
-    <row r="133" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -29068,7 +29161,9 @@
       <c r="Y133" s="23">
         <v>27.772472954514509</v>
       </c>
-      <c r="Z133" s="9"/>
+      <c r="Z133" s="23">
+        <v>27.124542351061425</v>
+      </c>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
@@ -29113,7 +29208,7 @@
       <c r="BP133" s="9"/>
       <c r="BQ133" s="9"/>
     </row>
-    <row r="134" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -29184,7 +29279,7 @@
       <c r="BP134" s="9"/>
       <c r="BQ134" s="9"/>
     </row>
-    <row r="135" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>1</v>
       </c>
@@ -29260,7 +29355,9 @@
       <c r="Y135" s="23">
         <v>100</v>
       </c>
-      <c r="Z135" s="9"/>
+      <c r="Z135" s="23">
+        <v>100</v>
+      </c>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
@@ -29305,7 +29402,7 @@
       <c r="BP135" s="9"/>
       <c r="BQ135" s="9"/>
     </row>
-    <row r="136" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -29331,8 +29428,9 @@
       <c r="W136" s="12"/>
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
+      <c r="Z136" s="12"/>
     </row>
-    <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -29358,7 +29456,7 @@
       <c r="W137" s="11"/>
       <c r="X137" s="11"/>
       <c r="Y137" s="11"/>
-      <c r="Z137" s="9"/>
+      <c r="Z137" s="11"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -29403,7 +29501,7 @@
       <c r="BP137" s="9"/>
       <c r="BQ137" s="9"/>
     </row>
-    <row r="138" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -29429,7 +29527,7 @@
       <c r="W138" s="11"/>
       <c r="X138" s="11"/>
       <c r="Y138" s="11"/>
-      <c r="Z138" s="9"/>
+      <c r="Z138" s="11"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
@@ -29474,7 +29572,7 @@
       <c r="BP138" s="9"/>
       <c r="BQ138" s="9"/>
     </row>
-    <row r="139" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -29500,18 +29598,19 @@
       <c r="W139" s="14"/>
       <c r="X139" s="14"/>
       <c r="Y139" s="14"/>
+      <c r="Z139" s="14"/>
     </row>
-    <row r="140" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A141" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -29582,7 +29681,7 @@
       <c r="BP142" s="9"/>
       <c r="BQ142" s="9"/>
     </row>
-    <row r="143" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -29653,37 +29752,37 @@
       <c r="BP143" s="9"/>
       <c r="BQ143" s="9"/>
     </row>
-    <row r="144" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="5" t="s">
         <v>6</v>
@@ -29711,8 +29810,9 @@
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>5</v>
       </c>
@@ -29788,11 +29888,14 @@
       <c r="Y153" s="17">
         <v>2023</v>
       </c>
+      <c r="Z153" s="17">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="154" spans="1:69" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
     </row>
-    <row r="155" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>4</v>
       </c>
@@ -29868,7 +29971,9 @@
       <c r="Y155" s="23">
         <v>39.101320716703583</v>
       </c>
-      <c r="Z155" s="9"/>
+      <c r="Z155" s="23">
+        <v>39.780808034392265</v>
+      </c>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
@@ -29913,7 +30018,7 @@
       <c r="BP155" s="9"/>
       <c r="BQ155" s="9"/>
     </row>
-    <row r="156" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
@@ -29989,7 +30094,9 @@
       <c r="Y156" s="23">
         <v>33.008851098965728</v>
       </c>
-      <c r="Z156" s="9"/>
+      <c r="Z156" s="23">
+        <v>32.910193651762775</v>
+      </c>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
@@ -30034,7 +30141,7 @@
       <c r="BP156" s="9"/>
       <c r="BQ156" s="9"/>
     </row>
-    <row r="157" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
@@ -30110,7 +30217,9 @@
       <c r="Y157" s="23">
         <v>27.889828184330689</v>
       </c>
-      <c r="Z157" s="9"/>
+      <c r="Z157" s="23">
+        <v>27.308998313844953</v>
+      </c>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
@@ -30155,7 +30264,7 @@
       <c r="BP157" s="9"/>
       <c r="BQ157" s="9"/>
     </row>
-    <row r="158" spans="1:69" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -30226,7 +30335,7 @@
       <c r="BP158" s="9"/>
       <c r="BQ158" s="9"/>
     </row>
-    <row r="159" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>1</v>
       </c>
@@ -30302,7 +30411,9 @@
       <c r="Y159" s="23">
         <v>100</v>
       </c>
-      <c r="Z159" s="9"/>
+      <c r="Z159" s="23">
+        <v>100</v>
+      </c>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
@@ -30347,7 +30458,7 @@
       <c r="BP159" s="9"/>
       <c r="BQ159" s="9"/>
     </row>
-    <row r="160" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:69" s="13" customFormat="1" ht="4.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -30373,8 +30484,9 @@
       <c r="W160" s="12"/>
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
+      <c r="Z160" s="12"/>
     </row>
-    <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -30400,7 +30512,7 @@
       <c r="W161" s="11"/>
       <c r="X161" s="11"/>
       <c r="Y161" s="11"/>
-      <c r="Z161" s="9"/>
+      <c r="Z161" s="11"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
@@ -30445,7 +30557,7 @@
       <c r="BP161" s="9"/>
       <c r="BQ161" s="9"/>
     </row>
-    <row r="162" spans="1:69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -30471,7 +30583,7 @@
       <c r="W162" s="11"/>
       <c r="X162" s="11"/>
       <c r="Y162" s="11"/>
-      <c r="Z162" s="9"/>
+      <c r="Z162" s="11"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
@@ -30516,7 +30628,7 @@
       <c r="BP162" s="9"/>
       <c r="BQ162" s="9"/>
     </row>
-    <row r="163" spans="1:69" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:69" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
@@ -30542,13 +30654,14 @@
       <c r="W163" s="14"/>
       <c r="X163" s="14"/>
       <c r="Y163" s="14"/>
+      <c r="Z163" s="14"/>
     </row>
-    <row r="164" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A165" s="13" t="s">
         <v>0</v>
       </c>
@@ -30559,9 +30672,9 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="24" man="1"/>
-    <brk id="96" max="24" man="1"/>
-    <brk id="119" max="24" man="1"/>
+    <brk id="48" max="25" man="1"/>
+    <brk id="96" max="25" man="1"/>
+    <brk id="119" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB2E420-C9A4-4ABC-9950-ABE9B959C0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3358579E-76A6-412E-80D6-41DB81526080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -630,7 +630,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23598,7 +23598,7 @@
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23825,10 +23825,10 @@
         <v>1262443.3073112834</v>
       </c>
       <c r="Y12" s="8">
-        <v>1431837.708180482</v>
+        <v>1433803.8154259156</v>
       </c>
       <c r="Z12" s="8">
-        <v>1624944.8706620194</v>
+        <v>1626491.8251600764</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -23948,10 +23948,10 @@
         <v>1058722.3684431568</v>
       </c>
       <c r="Y13" s="8">
-        <v>1200826.9448333844</v>
+        <v>1206185.4819713612</v>
       </c>
       <c r="Z13" s="8">
-        <v>1341482.5073813004</v>
+        <v>1346219.2325211747</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -24071,10 +24071,10 @@
         <v>914247.42882896191</v>
       </c>
       <c r="Y14" s="8">
-        <v>1012295.6006522161</v>
+        <v>1006804.7053990464</v>
       </c>
       <c r="Z14" s="8">
-        <v>1104116.3601976512</v>
+        <v>1101577.8734959415</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -24265,10 +24265,10 @@
         <v>3235413.1045834022</v>
       </c>
       <c r="Y16" s="11">
-        <v>3644960.2536660824</v>
+        <v>3646794.002796323</v>
       </c>
       <c r="Z16" s="11">
-        <v>4070543.7382409712</v>
+        <v>4074288.9311771928</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -24487,10 +24487,10 @@
         <v>1615246.627830148</v>
       </c>
       <c r="Y19" s="8">
-        <v>1832724.6193761146</v>
+        <v>1833308.9028312422</v>
       </c>
       <c r="Z19" s="8">
-        <v>2046592.5174483522</v>
+        <v>2047092.5254759088</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -24793,10 +24793,10 @@
         <v>1086582.9043949356</v>
       </c>
       <c r="Y36" s="8">
-        <v>1191478.3878643929</v>
+        <v>1193153.5174408746</v>
       </c>
       <c r="Z36" s="8">
-        <v>1338051.7413380928</v>
+        <v>1338902.688055566</v>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -24916,10 +24916,10 @@
         <v>913583.67250186147</v>
       </c>
       <c r="Y37" s="8">
-        <v>1005831.3113666899</v>
+        <v>1010051.4520818172</v>
       </c>
       <c r="Z37" s="8">
-        <v>1106954.436054802</v>
+        <v>1110346.6988230075</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -25039,10 +25039,10 @@
         <v>792307.75659522298</v>
       </c>
       <c r="Y38" s="8">
-        <v>849846.67816311773</v>
+        <v>845209.70530487224</v>
       </c>
       <c r="Z38" s="8">
-        <v>918554.81458416069</v>
+        <v>916487.0530865927</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -25233,10 +25233,10 @@
         <v>2792474.3334920201</v>
       </c>
       <c r="Y40" s="11">
-        <v>3047156.3773942003</v>
+        <v>3048414.674827564</v>
       </c>
       <c r="Z40" s="11">
-        <v>3363560.9919770556</v>
+        <v>3365736.4399651662</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -25455,10 +25455,10 @@
         <v>1385185.8574153748</v>
       </c>
       <c r="Y43" s="8">
-        <v>1506784.133241347</v>
+        <v>1507363.7486189185</v>
       </c>
       <c r="Z43" s="8">
-        <v>1661787.6382280597</v>
+        <v>1661464.1171081318</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -25899,10 +25899,10 @@
         <v>21.191692056090588</v>
       </c>
       <c r="X60" s="20">
-        <v>13.417980822439475</v>
+        <v>13.573719082846651</v>
       </c>
       <c r="Y60" s="20">
-        <v>13.486665519301738</v>
+        <v>13.438938274614799</v>
       </c>
       <c r="Z60" s="20"/>
       <c r="AA60" s="9"/>
@@ -26011,10 +26011,10 @@
         <v>24.496417655267862</v>
       </c>
       <c r="X61" s="20">
-        <v>13.422270146156563</v>
+        <v>13.928402565542058</v>
       </c>
       <c r="Y61" s="20">
-        <v>11.713225053209669</v>
+        <v>11.609636547850471</v>
       </c>
       <c r="Z61" s="20"/>
       <c r="AA61" s="9"/>
@@ -26123,10 +26123,10 @@
         <v>15.773273557342932</v>
       </c>
       <c r="X62" s="20">
-        <v>10.724467877239945</v>
+        <v>10.123876059311314</v>
       </c>
       <c r="Y62" s="20">
-        <v>9.0705481171977453</v>
+        <v>9.4132623326717493</v>
       </c>
       <c r="Z62" s="20"/>
       <c r="AA62" s="9"/>
@@ -26297,10 +26297,10 @@
         <v>20.644105779261707</v>
       </c>
       <c r="X64" s="20">
-        <v>12.658264519683769</v>
+        <v>12.714941953784646</v>
       </c>
       <c r="Y64" s="20">
-        <v>11.675943081871452</v>
+        <v>11.722486327801107</v>
       </c>
       <c r="Z64" s="20"/>
       <c r="AA64" s="9"/>
@@ -26499,10 +26499,10 @@
         <v>19.886867838084271</v>
       </c>
       <c r="X67" s="20">
-        <v>13.464073399002658</v>
+        <v>13.500246417107803</v>
       </c>
       <c r="Y67" s="20">
-        <v>11.669396253597625</v>
+        <v>11.661080263915878</v>
       </c>
       <c r="Z67" s="20"/>
       <c r="AA67" s="9"/>
@@ -26914,10 +26914,10 @@
         <v>12.509107014511983</v>
       </c>
       <c r="X84" s="20">
-        <v>9.6537027267025195</v>
+        <v>9.8078676385289612</v>
       </c>
       <c r="Y84" s="20">
-        <v>12.301805468449828</v>
+        <v>12.215458319839698</v>
       </c>
       <c r="Z84" s="20"/>
       <c r="AA84" s="9"/>
@@ -27026,10 +27026,10 @@
         <v>15.691315391678827</v>
       </c>
       <c r="X85" s="20">
-        <v>10.09733882526676</v>
+        <v>10.559271414710977</v>
       </c>
       <c r="Y85" s="20">
-        <v>10.053686293649932</v>
+        <v>9.9297166034930058</v>
       </c>
       <c r="Z85" s="20"/>
       <c r="AA85" s="9"/>
@@ -27138,10 +27138,10 @@
         <v>7.8072622321805625</v>
       </c>
       <c r="X86" s="20">
-        <v>7.2621933950459265</v>
+        <v>6.6769444410066541</v>
       </c>
       <c r="Y86" s="20">
-        <v>8.0847684866581631</v>
+        <v>8.4330962285874733</v>
       </c>
       <c r="Z86" s="20"/>
       <c r="AA86" s="9"/>
@@ -27312,10 +27312,10 @@
         <v>12.130601842906003</v>
       </c>
       <c r="X88" s="20">
-        <v>9.1203002601530727</v>
+        <v>9.1653605644957707</v>
       </c>
       <c r="Y88" s="20">
-        <v>10.383602788821463</v>
+        <v>10.409402885962422</v>
       </c>
       <c r="Z88" s="20"/>
       <c r="AA88" s="9"/>
@@ -27514,10 +27514,10 @@
         <v>12.151163095022284</v>
       </c>
       <c r="X91" s="20">
-        <v>8.7784808930162654</v>
+        <v>8.8203247636036366</v>
       </c>
       <c r="Y91" s="20">
-        <v>10.287041226885904</v>
+        <v>10.223170660061555</v>
       </c>
       <c r="Z91" s="20"/>
       <c r="AA91" s="9"/>
@@ -27947,10 +27947,10 @@
         <v>116.18472020911057</v>
       </c>
       <c r="Y107" s="23">
-        <v>120.17320018258235</v>
+        <v>120.16926526782554</v>
       </c>
       <c r="Z107" s="23">
-        <v>121.4411087748389</v>
+        <v>121.47946521208081</v>
       </c>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
@@ -28070,10 +28070,10 @@
         <v>115.8867436349679</v>
       </c>
       <c r="Y108" s="23">
-        <v>119.38651454404825</v>
+        <v>119.41822166438077</v>
       </c>
       <c r="Z108" s="23">
-        <v>121.18678634708391</v>
+        <v>121.24314270022123</v>
       </c>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
@@ -28193,10 +28193,10 @@
         <v>115.39044281956158</v>
       </c>
       <c r="Y109" s="23">
-        <v>119.11508589293072</v>
+        <v>119.11892386941841</v>
       </c>
       <c r="Z109" s="23">
-        <v>120.20146676793546</v>
+        <v>120.19568304712985</v>
       </c>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
@@ -28387,10 +28387,10 @@
         <v>115.86187438784737</v>
       </c>
       <c r="Y111" s="23">
-        <v>119.61841803416399</v>
+        <v>119.62919719911815</v>
       </c>
       <c r="Z111" s="23">
-        <v>121.0188769566019</v>
+        <v>121.05193035314909</v>
       </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -28609,10 +28609,10 @@
         <v>116.60865718366809</v>
       </c>
       <c r="Y114" s="23">
-        <v>121.63153161386259</v>
+        <v>121.62352348668077</v>
       </c>
       <c r="Z114" s="23">
-        <v>123.15608025767987</v>
+        <v>123.2101556932198</v>
       </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -28913,10 +28913,10 @@
         <v>39.01953990119101</v>
       </c>
       <c r="Y131" s="23">
-        <v>39.282670002789381</v>
+        <v>39.316830463319015</v>
       </c>
       <c r="Z131" s="23">
-        <v>39.919602273189589</v>
+        <v>39.920875829739714</v>
       </c>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -29036,10 +29036,10 @@
         <v>32.722942456508342</v>
       </c>
       <c r="Y132" s="23">
-        <v>32.944857042696114</v>
+        <v>33.07522939454411</v>
       </c>
       <c r="Z132" s="23">
-        <v>32.955855375748975</v>
+        <v>33.041820432018518</v>
       </c>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
@@ -29159,10 +29159,10 @@
         <v>28.257517642300645</v>
       </c>
       <c r="Y133" s="23">
-        <v>27.772472954514509</v>
+        <v>27.607940142136883</v>
       </c>
       <c r="Z133" s="23">
-        <v>27.124542351061425</v>
+        <v>27.037303738241764</v>
       </c>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
@@ -29969,10 +29969,10 @@
         <v>38.911115184222716</v>
       </c>
       <c r="Y155" s="23">
-        <v>39.101320716703583</v>
+        <v>39.14013166559652</v>
       </c>
       <c r="Z155" s="23">
-        <v>39.780808034392265</v>
+        <v>39.780378289793333</v>
       </c>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
@@ -30092,10 +30092,10 @@
         <v>32.71592012662888</v>
       </c>
       <c r="Y156" s="23">
-        <v>33.008851098965728</v>
+        <v>33.133663225753615</v>
       </c>
       <c r="Z156" s="23">
-        <v>32.910193651762775</v>
+        <v>32.989710235139484</v>
       </c>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
@@ -30215,10 +30215,10 @@
         <v>28.3729646891484</v>
       </c>
       <c r="Y157" s="23">
-        <v>27.889828184330689</v>
+        <v>27.726205108649864</v>
       </c>
       <c r="Z157" s="23">
-        <v>27.308998313844953</v>
+        <v>27.22991147506719</v>
       </c>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>

--- a/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-12CNS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3358579E-76A6-412E-80D6-41DB81526080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79911C09-A31E-4581-B93C-576B909CDFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CNS" sheetId="1" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$Z$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CNS!$A$1:$AA$167</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23598,14 +23601,14 @@
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight" activeCell="D152" sqref="D152"/>
       <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.21875" style="1" customWidth="1"/>
-    <col min="2" max="26" width="9.77734375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="9.77734375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
@@ -23620,7 +23623,7 @@
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
@@ -23630,7 +23633,7 @@
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
@@ -23667,6 +23670,7 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -23746,6 +23750,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23830,7 +23837,9 @@
       <c r="Z12" s="8">
         <v>1626491.8251600764</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>1349760.5226168416</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -23953,7 +23962,9 @@
       <c r="Z13" s="8">
         <v>1346219.2325211747</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>1486567.3422226342</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -24076,7 +24087,9 @@
       <c r="Z14" s="8">
         <v>1101577.8734959415</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>1228083.8135988754</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -24270,7 +24283,9 @@
       <c r="Z16" s="11">
         <v>4074288.9311771928</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="11">
+        <v>4064411.678438351</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -24341,6 +24356,7 @@
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
@@ -24369,7 +24385,7 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="11"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -24492,7 +24508,9 @@
       <c r="Z19" s="8">
         <v>2047092.5254759088</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="8">
+        <v>2064551.7851221794</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -24563,6 +24581,7 @@
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
     </row>
     <row r="21" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
@@ -24588,7 +24607,7 @@
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
@@ -24598,7 +24617,7 @@
     </row>
     <row r="30" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:69" x14ac:dyDescent="0.2">
@@ -24635,6 +24654,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -24714,6 +24734,9 @@
       </c>
       <c r="Z34" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA34" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="35" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24798,7 +24821,9 @@
       <c r="Z36" s="8">
         <v>1338902.688055566</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="8">
+        <v>1099500.5139034337</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -24921,7 +24946,9 @@
       <c r="Z37" s="8">
         <v>1110346.6988230075</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="8">
+        <v>1219083.6075478226</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -25044,7 +25071,9 @@
       <c r="Z38" s="8">
         <v>916487.0530865927</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="8">
+        <v>1012020.2474498879</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -25238,7 +25267,9 @@
       <c r="Z40" s="11">
         <v>3365736.4399651662</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="11">
+        <v>3330604.3689011442</v>
+      </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
@@ -25309,6 +25340,7 @@
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
     </row>
     <row r="42" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
@@ -25337,7 +25369,7 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="11"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
@@ -25460,7 +25492,9 @@
       <c r="Z43" s="8">
         <v>1661464.1171081318</v>
       </c>
-      <c r="AA43" s="9"/>
+      <c r="AA43" s="8">
+        <v>1657514.1976606855</v>
+      </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
@@ -25531,6 +25565,7 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
     </row>
     <row r="45" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
@@ -25696,7 +25731,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.2">
@@ -25709,7 +25744,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.2">
@@ -25746,6 +25781,7 @@
       <c r="X57" s="18"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
+      <c r="AA57" s="18"/>
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -25823,7 +25859,10 @@
       <c r="Y58" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Z58" s="19"/>
+      <c r="Z58" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA58" s="19"/>
     </row>
     <row r="59" spans="1:60" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -25904,8 +25943,10 @@
       <c r="Y60" s="20">
         <v>13.438938274614799</v>
       </c>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="9"/>
+      <c r="Z60" s="20">
+        <v>-17.013998980044022</v>
+      </c>
+      <c r="AA60" s="20"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="9"/>
       <c r="AD60" s="9"/>
@@ -26016,8 +26057,10 @@
       <c r="Y61" s="20">
         <v>11.609636547850471</v>
       </c>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="9"/>
+      <c r="Z61" s="20">
+        <v>10.425353189956894</v>
+      </c>
+      <c r="AA61" s="20"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
@@ -26128,8 +26171,10 @@
       <c r="Y62" s="20">
         <v>9.4132623326717493</v>
       </c>
-      <c r="Z62" s="20"/>
-      <c r="AA62" s="9"/>
+      <c r="Z62" s="20">
+        <v>11.484066914076422</v>
+      </c>
+      <c r="AA62" s="20"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -26191,7 +26236,7 @@
       <c r="X63" s="21"/>
       <c r="Y63" s="21"/>
       <c r="Z63" s="21"/>
-      <c r="AA63" s="9"/>
+      <c r="AA63" s="21"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -26302,8 +26347,10 @@
       <c r="Y64" s="20">
         <v>11.722486327801107</v>
       </c>
-      <c r="Z64" s="20"/>
-      <c r="AA64" s="9"/>
+      <c r="Z64" s="20">
+        <v>-0.24242887300552241</v>
+      </c>
+      <c r="AA64" s="20"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -26365,6 +26412,7 @@
       <c r="X65" s="22"/>
       <c r="Y65" s="22"/>
       <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
@@ -26393,7 +26441,7 @@
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="20"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -26504,8 +26552,10 @@
       <c r="Y67" s="20">
         <v>11.661080263915878</v>
       </c>
-      <c r="Z67" s="20"/>
-      <c r="AA67" s="9"/>
+      <c r="Z67" s="20">
+        <v>0.85288082629347173</v>
+      </c>
+      <c r="AA67" s="20"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
@@ -26567,6 +26617,7 @@
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
     </row>
     <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
@@ -26714,7 +26765,7 @@
     </row>
     <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:60" x14ac:dyDescent="0.2">
@@ -26724,7 +26775,7 @@
     </row>
     <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:60" x14ac:dyDescent="0.2">
@@ -26761,6 +26812,7 @@
       <c r="X81" s="18"/>
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
     </row>
     <row r="82" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
@@ -26838,7 +26890,10 @@
       <c r="Y82" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="Z82" s="17"/>
+      <c r="Z82" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA82" s="17"/>
     </row>
     <row r="83" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -26919,8 +26974,10 @@
       <c r="Y84" s="20">
         <v>12.215458319839698</v>
       </c>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="9"/>
+      <c r="Z84" s="20">
+        <v>-17.880476026215646</v>
+      </c>
+      <c r="AA84" s="20"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
@@ -27031,8 +27088,10 @@
       <c r="Y85" s="20">
         <v>9.9297166034930058</v>
       </c>
-      <c r="Z85" s="20"/>
-      <c r="AA85" s="9"/>
+      <c r="Z85" s="20">
+        <v>9.7930591264943274</v>
+      </c>
+      <c r="AA85" s="20"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
       <c r="AD85" s="9"/>
@@ -27143,8 +27202,10 @@
       <c r="Y86" s="20">
         <v>8.4330962285874733</v>
       </c>
-      <c r="Z86" s="20"/>
-      <c r="AA86" s="9"/>
+      <c r="Z86" s="20">
+        <v>10.423845491494248</v>
+      </c>
+      <c r="AA86" s="20"/>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AD86" s="9"/>
@@ -27206,7 +27267,7 @@
       <c r="X87" s="21"/>
       <c r="Y87" s="21"/>
       <c r="Z87" s="21"/>
-      <c r="AA87" s="9"/>
+      <c r="AA87" s="21"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -27317,8 +27378,10 @@
       <c r="Y88" s="20">
         <v>10.409402885962422</v>
       </c>
-      <c r="Z88" s="20"/>
-      <c r="AA88" s="9"/>
+      <c r="Z88" s="20">
+        <v>-1.043815274626354</v>
+      </c>
+      <c r="AA88" s="20"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -27380,6 +27443,7 @@
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
       <c r="Z89" s="22"/>
+      <c r="AA89" s="22"/>
     </row>
     <row r="90" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
@@ -27408,7 +27472,7 @@
       <c r="X90" s="20"/>
       <c r="Y90" s="20"/>
       <c r="Z90" s="20"/>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="20"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -27519,8 +27583,10 @@
       <c r="Y91" s="20">
         <v>10.223170660061555</v>
       </c>
-      <c r="Z91" s="20"/>
-      <c r="AA91" s="9"/>
+      <c r="Z91" s="20">
+        <v>-0.23773727080674689</v>
+      </c>
+      <c r="AA91" s="20"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
@@ -27582,6 +27648,7 @@
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
       <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
     </row>
     <row r="93" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
@@ -27742,7 +27809,7 @@
     </row>
     <row r="98" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:69" x14ac:dyDescent="0.2">
@@ -27752,7 +27819,7 @@
     </row>
     <row r="101" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:69" x14ac:dyDescent="0.2">
@@ -27789,6 +27856,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
     </row>
     <row r="105" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
@@ -27868,6 +27936,9 @@
       </c>
       <c r="Z105" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA105" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="106" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27952,7 +28023,9 @@
       <c r="Z107" s="23">
         <v>121.47946521208081</v>
       </c>
-      <c r="AA107" s="9"/>
+      <c r="AA107" s="23">
+        <v>122.76124526990331</v>
+      </c>
       <c r="AB107" s="9"/>
       <c r="AC107" s="9"/>
       <c r="AD107" s="9"/>
@@ -28075,7 +28148,9 @@
       <c r="Z108" s="23">
         <v>121.24314270022123</v>
       </c>
-      <c r="AA108" s="9"/>
+      <c r="AA108" s="23">
+        <v>121.94137736072533</v>
+      </c>
       <c r="AB108" s="9"/>
       <c r="AC108" s="9"/>
       <c r="AD108" s="9"/>
@@ -28198,7 +28273,9 @@
       <c r="Z109" s="23">
         <v>120.19568304712985</v>
       </c>
-      <c r="AA109" s="9"/>
+      <c r="AA109" s="23">
+        <v>121.34972760608589</v>
+      </c>
       <c r="AB109" s="9"/>
       <c r="AC109" s="9"/>
       <c r="AD109" s="9"/>
@@ -28392,7 +28469,9 @@
       <c r="Z111" s="23">
         <v>121.05193035314909</v>
       </c>
-      <c r="AA111" s="9"/>
+      <c r="AA111" s="23">
+        <v>122.0322568597155</v>
+      </c>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -28463,6 +28542,7 @@
       <c r="X112" s="12"/>
       <c r="Y112" s="12"/>
       <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
     </row>
     <row r="113" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
@@ -28491,7 +28571,7 @@
       <c r="X113" s="11"/>
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
-      <c r="AA113" s="9"/>
+      <c r="AA113" s="11"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -28614,7 +28694,9 @@
       <c r="Z114" s="23">
         <v>123.2101556932198</v>
       </c>
-      <c r="AA114" s="9"/>
+      <c r="AA114" s="23">
+        <v>124.55711016146722</v>
+      </c>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
@@ -28685,6 +28767,7 @@
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
       <c r="Z115" s="14"/>
+      <c r="AA115" s="14"/>
     </row>
     <row r="116" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
@@ -28708,7 +28791,7 @@
     </row>
     <row r="122" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:69" x14ac:dyDescent="0.2">
@@ -28718,7 +28801,7 @@
     </row>
     <row r="125" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:69" x14ac:dyDescent="0.2">
@@ -28755,6 +28838,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
+      <c r="AA128" s="5"/>
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -28834,6 +28918,9 @@
       </c>
       <c r="Z129" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA129" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="130" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28918,7 +29005,9 @@
       <c r="Z131" s="23">
         <v>39.920875829739714</v>
       </c>
-      <c r="AA131" s="9"/>
+      <c r="AA131" s="23">
+        <v>33.209247227029266</v>
+      </c>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
       <c r="AD131" s="9"/>
@@ -29041,7 +29130,9 @@
       <c r="Z132" s="23">
         <v>33.041820432018518</v>
       </c>
-      <c r="AA132" s="9"/>
+      <c r="AA132" s="23">
+        <v>36.575215795901137</v>
+      </c>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
       <c r="AD132" s="9"/>
@@ -29164,7 +29255,9 @@
       <c r="Z133" s="23">
         <v>27.037303738241764</v>
       </c>
-      <c r="AA133" s="9"/>
+      <c r="AA133" s="23">
+        <v>30.215536977069608</v>
+      </c>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
       <c r="AD133" s="9"/>
@@ -29358,7 +29451,9 @@
       <c r="Z135" s="23">
         <v>100</v>
       </c>
-      <c r="AA135" s="9"/>
+      <c r="AA135" s="23">
+        <v>100</v>
+      </c>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
       <c r="AD135" s="9"/>
@@ -29429,6 +29524,7 @@
       <c r="X136" s="12"/>
       <c r="Y136" s="12"/>
       <c r="Z136" s="12"/>
+      <c r="AA136" s="12"/>
     </row>
     <row r="137" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
@@ -29457,7 +29553,7 @@
       <c r="X137" s="11"/>
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
-      <c r="AA137" s="9"/>
+      <c r="AA137" s="11"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -29528,7 +29624,7 @@
       <c r="X138" s="11"/>
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
-      <c r="AA138" s="9"/>
+      <c r="AA138" s="11"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -29599,6 +29695,7 @@
       <c r="X139" s="14"/>
       <c r="Y139" s="14"/>
       <c r="Z139" s="14"/>
+      <c r="AA139" s="14"/>
     </row>
     <row r="140" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
@@ -29764,7 +29861,7 @@
     </row>
     <row r="146" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:69" x14ac:dyDescent="0.2">
@@ -29774,7 +29871,7 @@
     </row>
     <row r="149" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:69" x14ac:dyDescent="0.2">
@@ -29811,6 +29908,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
     </row>
     <row r="153" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
@@ -29890,6 +29988,9 @@
       </c>
       <c r="Z153" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA153" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="154" spans="1:69" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29974,7 +30075,9 @@
       <c r="Z155" s="23">
         <v>39.780378289793333</v>
       </c>
-      <c r="AA155" s="9"/>
+      <c r="AA155" s="23">
+        <v>33.012042023657962</v>
+      </c>
       <c r="AB155" s="9"/>
       <c r="AC155" s="9"/>
       <c r="AD155" s="9"/>
@@ -30097,7 +30200,9 @@
       <c r="Z156" s="23">
         <v>32.989710235139484</v>
       </c>
-      <c r="AA156" s="9"/>
+      <c r="AA156" s="23">
+        <v>36.602474281568028</v>
+      </c>
       <c r="AB156" s="9"/>
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
@@ -30220,7 +30325,9 @@
       <c r="Z157" s="23">
         <v>27.22991147506719</v>
       </c>
-      <c r="AA157" s="9"/>
+      <c r="AA157" s="23">
+        <v>30.385483694774006</v>
+      </c>
       <c r="AB157" s="9"/>
       <c r="AC157" s="9"/>
       <c r="AD157" s="9"/>
@@ -30414,7 +30521,9 @@
       <c r="Z159" s="23">
         <v>100</v>
       </c>
-      <c r="AA159" s="9"/>
+      <c r="AA159" s="23">
+        <v>100</v>
+      </c>
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
       <c r="AD159" s="9"/>
@@ -30485,6 +30594,7 @@
       <c r="X160" s="12"/>
       <c r="Y160" s="12"/>
       <c r="Z160" s="12"/>
+      <c r="AA160" s="12"/>
     </row>
     <row r="161" spans="1:69" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
@@ -30513,7 +30623,7 @@
       <c r="X161" s="11"/>
       <c r="Y161" s="11"/>
       <c r="Z161" s="11"/>
-      <c r="AA161" s="9"/>
+      <c r="AA161" s="11"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -30584,7 +30694,7 @@
       <c r="X162" s="11"/>
       <c r="Y162" s="11"/>
       <c r="Z162" s="11"/>
-      <c r="AA162" s="9"/>
+      <c r="AA162" s="11"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -30655,6 +30765,7 @@
       <c r="X163" s="14"/>
       <c r="Y163" s="14"/>
       <c r="Z163" s="14"/>
+      <c r="AA163" s="14"/>
     </row>
     <row r="164" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
@@ -30672,9 +30783,9 @@
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="48" max="25" man="1"/>
-    <brk id="96" max="25" man="1"/>
-    <brk id="119" max="25" man="1"/>
+    <brk id="48" max="26" man="1"/>
+    <brk id="96" max="26" man="1"/>
+    <brk id="119" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>